--- a/Data/Turismo_consolidado_13.8.21.xlsx
+++ b/Data/Turismo_consolidado_13.8.21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Estudio\proyecto camara de comercio-20210502T212657Z-001\proyecto camara de comercio\dashboards\Graficas R y Python\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E65D59-C6DC-479D-81C4-428CCF6B65F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1BBDFB-F19B-45C8-B324-D351039D6E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="7" xr2:uid="{9BE48BEF-8747-49BA-8F75-DA0FD59BF12C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="16" xr2:uid="{9BE48BEF-8747-49BA-8F75-DA0FD59BF12C}"/>
   </bookViews>
   <sheets>
     <sheet name="Ocupación_mensual" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="SACSA" sheetId="5" r:id="rId5"/>
     <sheet name="sa_csa" sheetId="8" r:id="rId6"/>
     <sheet name="SACSA_discriminado" sheetId="6" r:id="rId7"/>
-    <sheet name="Var" sheetId="7" r:id="rId8"/>
+    <sheet name="var" sheetId="7" r:id="rId8"/>
     <sheet name="sac_dis" sheetId="9" r:id="rId9"/>
     <sheet name="cruceros_5" sheetId="16" r:id="rId10"/>
     <sheet name="Table004 (Page 2) (3)" sheetId="17" r:id="rId11"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="154">
   <si>
     <t>Año</t>
   </si>
@@ -543,6 +543,15 @@
   <si>
     <t>Pasajeros Enbarcados</t>
   </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
 </sst>
 </file>
 
@@ -734,7 +743,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -782,6 +791,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -818,33 +854,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2443,7 +2457,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C09C7C06-2B66-495C-BE15-D72041A64C40}" name="Table004__Page_2___2" displayName="Table004__Page_2___2" ref="A1:X14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:X14" xr:uid="{C09C7C06-2B66-495C-BE15-D72041A64C40}"/>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{5F15E227-40B3-4F4D-AC73-1309C3139BE8}" uniqueName="1" name="Mes" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{5F15E227-40B3-4F4D-AC73-1309C3139BE8}" uniqueName="1" name="Mes" queryTableFieldId="1" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{74D79890-42AC-4B4E-9188-8F64ACBB1D2A}" uniqueName="2" name="1998" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{398D38DE-AF49-4180-B463-1ADB4B8D2A0F}" uniqueName="3" name="1999" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{2AB8FF89-DCEC-476C-A606-AF68BF51530D}" uniqueName="4" name="2000" queryTableFieldId="4"/>
@@ -2476,7 +2490,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6B131E80-FC9D-40D7-A9E5-0EF9234E8177}" name="Table004__Page_2___3" displayName="Table004__Page_2___3" ref="A1:X14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:X14" xr:uid="{6B131E80-FC9D-40D7-A9E5-0EF9234E8177}"/>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{3FE7596A-7884-4651-85FA-CAAA5016EC9A}" uniqueName="1" name="Mes" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{3FE7596A-7884-4651-85FA-CAAA5016EC9A}" uniqueName="1" name="Mes" queryTableFieldId="1" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{91E92AD1-353A-4596-9D0E-D65491C35FED}" uniqueName="2" name="1998" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{2A75C76E-EEF7-47A8-8ED5-EAE956933EE9}" uniqueName="3" name="1999" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{E136155A-B438-44A0-B86F-49F08457D923}" uniqueName="4" name="2000" queryTableFieldId="4"/>
@@ -2488,7 +2502,7 @@
     <tableColumn id="10" xr3:uid="{D5942E36-138F-4633-BAB7-1C946E0E3404}" uniqueName="10" name="2006" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{1CC7D905-458F-4D54-92C7-85EAC7865B43}" uniqueName="11" name="2007" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{493FC2D2-C8C3-406E-A172-8B0606F564C2}" uniqueName="12" name="2008" queryTableFieldId="12"/>
-    <tableColumn id="13" xr3:uid="{CCED0A67-92CF-45D9-B5AF-266ADFC36B36}" uniqueName="13" name="2009" queryTableFieldId="13" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{CCED0A67-92CF-45D9-B5AF-266ADFC36B36}" uniqueName="13" name="2009" queryTableFieldId="13" dataDxfId="7"/>
     <tableColumn id="14" xr3:uid="{9E53672D-7671-493E-A85A-322BA3286404}" uniqueName="14" name="2010" queryTableFieldId="14"/>
     <tableColumn id="15" xr3:uid="{0D16B177-365C-440A-9D32-A789F77DB7E6}" uniqueName="15" name="2011" queryTableFieldId="15"/>
     <tableColumn id="16" xr3:uid="{FA780DB1-8080-4237-B403-205F16D2C394}" uniqueName="16" name="2012" queryTableFieldId="16"/>
@@ -2509,7 +2523,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CBA38332-ACA1-448E-A93C-062A64AEA780}" name="Table005__Page_2" displayName="Table005__Page_2" ref="A1:X9" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:X9" xr:uid="{CBA38332-ACA1-448E-A93C-062A64AEA780}"/>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{3CA62071-D45F-442C-B6EB-76C18510E821}" uniqueName="1" name="DATOS RELEVANTES" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{3CA62071-D45F-442C-B6EB-76C18510E821}" uniqueName="1" name="DATOS RELEVANTES" queryTableFieldId="1" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{35684C3E-11B6-4919-8F4B-121668A46372}" uniqueName="2" name="1998" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{D20BC353-3D0B-4F6A-8F86-D0C80F5E9B69}" uniqueName="3" name="1999" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{5561F701-49DF-47D9-A852-B485391EFC63}" uniqueName="4" name="2000" queryTableFieldId="4"/>
@@ -2542,7 +2556,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4C4C530F-5AF1-40A2-B93C-A4DA61815D84}" name="Table004__Page_2" displayName="Table004__Page_2" ref="A1:X15" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:X15" xr:uid="{4C4C530F-5AF1-40A2-B93C-A4DA61815D84}"/>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{A9347A26-953F-4FB5-A509-4F02E0670DDF}" uniqueName="1" name="Mes" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{A9347A26-953F-4FB5-A509-4F02E0670DDF}" uniqueName="1" name="Mes" queryTableFieldId="1" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{A8B63EF9-2CCB-4CF3-8561-0BCD35BDDA6C}" uniqueName="2" name="1998" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{30357292-B55B-438D-8ABE-310C6948D2B0}" uniqueName="3" name="1999" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{719B0D2C-9F7A-4E1E-8325-86887A38B98D}" uniqueName="4" name="2000" queryTableFieldId="4"/>
@@ -2554,7 +2568,7 @@
     <tableColumn id="10" xr3:uid="{39F23F7E-053F-4976-A036-D7DCA2CAE0C0}" uniqueName="10" name="2006" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{FE581DEA-ACB2-4062-B9CA-59CB45457829}" uniqueName="11" name="2007" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{0AD4F3A8-7FFA-4520-B7CE-03E0345F5121}" uniqueName="12" name="2008" queryTableFieldId="12"/>
-    <tableColumn id="13" xr3:uid="{5EB6C627-3D64-4293-93E9-7E40847B60BB}" uniqueName="13" name="2009" queryTableFieldId="13" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{5EB6C627-3D64-4293-93E9-7E40847B60BB}" uniqueName="13" name="2009" queryTableFieldId="13" dataDxfId="4"/>
     <tableColumn id="14" xr3:uid="{90F72447-3C2F-4696-9D52-029A1AA25F3C}" uniqueName="14" name="2010" queryTableFieldId="14"/>
     <tableColumn id="15" xr3:uid="{7764DA70-36A5-4965-8A03-5976A683DB3C}" uniqueName="15" name="2011" queryTableFieldId="15"/>
     <tableColumn id="16" xr3:uid="{DAA008C4-243E-43B6-98B8-5F81F8C360CA}" uniqueName="16" name="2012" queryTableFieldId="16"/>
@@ -2575,7 +2589,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BAFAB82C-5719-4DFC-8968-95ED26311BBD}" name="Table003__Page_1" displayName="Table003__Page_1" ref="A1:X14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:X14" xr:uid="{BAFAB82C-5719-4DFC-8968-95ED26311BBD}"/>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{C619A4A6-AA97-406F-AB98-26A7AA671CD8}" uniqueName="1" name="Mes" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{C619A4A6-AA97-406F-AB98-26A7AA671CD8}" uniqueName="1" name="Mes" queryTableFieldId="1" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{35C4128E-34FD-4DB1-8BBF-88EF4DF32EB0}" uniqueName="2" name="1998" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{37B66A76-D533-4B62-AEFE-3A45B99BBB3D}" uniqueName="3" name="1999" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{C5F3278C-6E6C-4A36-94BC-0A8520140A67}" uniqueName="4" name="2000" queryTableFieldId="4"/>
@@ -2608,7 +2622,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8C13321C-D1AA-4677-B603-12F1D6254520}" name="Table002__Page_1" displayName="Table002__Page_1" ref="A1:X14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:X14" xr:uid="{8C13321C-D1AA-4677-B603-12F1D6254520}"/>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{B21270E4-F52A-4E53-BA0A-2EE205388A60}" uniqueName="1" name="Mes" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{B21270E4-F52A-4E53-BA0A-2EE205388A60}" uniqueName="1" name="Mes" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{BE42F9A7-3AC5-4290-909C-C20591F8C9FE}" uniqueName="2" name="1998" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{B01D4A68-9095-4140-B194-9F7A1850CBA0}" uniqueName="3" name="1999" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{76ABBFB4-15C3-4388-AC13-56D9027364EF}" uniqueName="4" name="2000" queryTableFieldId="4"/>
@@ -2641,7 +2655,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D739C2B-739A-4D21-9207-D679F36719EE}" name="Table001__Page_1" displayName="Table001__Page_1" ref="A1:X14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:X14" xr:uid="{6D739C2B-739A-4D21-9207-D679F36719EE}"/>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{56E55507-55E3-4902-8656-4152AF68DF7B}" uniqueName="1" name="Mes" queryTableFieldId="1" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{56E55507-55E3-4902-8656-4152AF68DF7B}" uniqueName="1" name="Mes" queryTableFieldId="1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{247B95B9-D898-42D7-9875-43A6BE052E3C}" uniqueName="2" name="1998" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{15416DAA-A9C2-4A84-8761-4E9029C469BF}" uniqueName="3" name="1999" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{CA8A2CE6-60C0-49F1-8868-D6A0F3F8C933}" uniqueName="4" name="2000" queryTableFieldId="4"/>
@@ -2674,7 +2688,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B21B0DE1-A9A6-4DB8-AECE-041FC5FB6832}" name="Table001__Page_18" displayName="Table001__Page_18" ref="B1:Y79" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="B1:Y79" xr:uid="{B21B0DE1-A9A6-4DB8-AECE-041FC5FB6832}"/>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{481209B0-773F-4231-B455-6E958570795C}" uniqueName="1" name="Mes" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{481209B0-773F-4231-B455-6E958570795C}" uniqueName="1" name="Mes" queryTableFieldId="1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{A00D7056-CC53-4111-8193-B274A626AA73}" uniqueName="2" name="1998" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{5A9B1987-97C9-4C77-A57E-91A19EF63F42}" uniqueName="3" name="1999" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{FD1C83EA-4EF2-4CA2-8C3F-5D2A27E821AE}" uniqueName="4" name="2000" queryTableFieldId="4"/>
@@ -3057,7 +3071,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="34">
+      <c r="A2" s="22">
         <v>2019</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3084,14 +3098,14 @@
       <c r="I2" s="4">
         <v>0.47607380409764199</v>
       </c>
-      <c r="J2" s="31">
+      <c r="J2" s="19">
         <v>1</v>
       </c>
       <c r="K2" t="str">
         <f>_xlfn.TEXTJOIN("-",,A2,J2,L2)</f>
         <v>2019-1-1</v>
       </c>
-      <c r="L2" s="32">
+      <c r="L2" s="20">
         <v>1</v>
       </c>
       <c r="M2" s="18" t="s">
@@ -3103,7 +3117,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="34">
+      <c r="A3" s="22">
         <v>2019</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3130,14 +3144,14 @@
       <c r="I3" s="4">
         <v>1.46847569346094</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="19">
         <v>2</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" ref="K3:K31" si="0">_xlfn.TEXTJOIN("-",,A3,J3,L3)</f>
         <v>2019-2-1</v>
       </c>
-      <c r="L3" s="32">
+      <c r="L3" s="20">
         <v>1</v>
       </c>
       <c r="M3" s="18" t="s">
@@ -3149,7 +3163,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="34">
+      <c r="A4" s="22">
         <v>2019</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3176,14 +3190,14 @@
       <c r="I4" s="4">
         <v>6.5421816021589696E-2</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="19">
         <v>3</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="0"/>
         <v>2019-3-1</v>
       </c>
-      <c r="L4" s="32">
+      <c r="L4" s="20">
         <v>1</v>
       </c>
       <c r="M4" s="18" t="s">
@@ -3195,7 +3209,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="34">
+      <c r="A5" s="22">
         <v>2019</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3222,14 +3236,14 @@
       <c r="I5" s="4">
         <v>1.59416042362397E-2</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="19">
         <v>4</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
         <v>2019-4-1</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="20">
         <v>1</v>
       </c>
       <c r="M5" s="18" t="s">
@@ -3241,7 +3255,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="34">
+      <c r="A6" s="22">
         <v>2019</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3268,14 +3282,14 @@
       <c r="I6" s="4">
         <v>2.2951906687122801</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="19">
         <v>5</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
         <v>2019-5-1</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="20">
         <v>1</v>
       </c>
       <c r="M6" s="18" t="s">
@@ -3287,7 +3301,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="34">
+      <c r="A7" s="22">
         <v>2019</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3314,14 +3328,14 @@
       <c r="I7" s="4">
         <v>2.9203093772492701</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="19">
         <v>6</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
         <v>2019-6-1</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="20">
         <v>1</v>
       </c>
       <c r="M7" s="18" t="s">
@@ -3333,7 +3347,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="34">
+      <c r="A8" s="22">
         <v>2019</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3360,14 +3374,14 @@
       <c r="I8" s="4">
         <v>2.3308042164128402</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="19">
         <v>7</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
         <v>2019-7-1</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="20">
         <v>1</v>
       </c>
       <c r="M8" s="18" t="s">
@@ -3379,7 +3393,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="34">
+      <c r="A9" s="22">
         <v>2019</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3406,14 +3420,14 @@
       <c r="I9" s="4">
         <v>2.51445631314883</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="19">
         <v>8</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
         <v>2019-8-1</v>
       </c>
-      <c r="L9" s="32">
+      <c r="L9" s="20">
         <v>1</v>
       </c>
       <c r="M9" s="18" t="s">
@@ -3425,7 +3439,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="34">
+      <c r="A10" s="22">
         <v>2019</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3452,14 +3466,14 @@
       <c r="I10" s="4">
         <v>1.2469467636257301</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="19">
         <v>9</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
         <v>2019-9-1</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="20">
         <v>1</v>
       </c>
       <c r="M10" s="18" t="s">
@@ -3471,7 +3485,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="34">
+      <c r="A11" s="22">
         <v>2019</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -3498,14 +3512,14 @@
       <c r="I11" s="4">
         <v>4.1212372956240602</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="19">
         <v>10</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
         <v>2019-10-1</v>
       </c>
-      <c r="L11" s="32">
+      <c r="L11" s="20">
         <v>1</v>
       </c>
       <c r="M11" s="18" t="s">
@@ -3517,7 +3531,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="34">
+      <c r="A12" s="22">
         <v>2019</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3544,14 +3558,14 @@
       <c r="I12" s="4">
         <v>1.0808954438748599</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="19">
         <v>11</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
         <v>2019-11-1</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="20">
         <v>1</v>
       </c>
       <c r="M12" s="18" t="s">
@@ -3563,7 +3577,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="34">
+      <c r="A13" s="22">
         <v>2019</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -3590,14 +3604,14 @@
       <c r="I13" s="4">
         <v>2.1500298483892202</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="19">
         <v>12</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
         <v>2019-12-1</v>
       </c>
-      <c r="L13" s="32">
+      <c r="L13" s="20">
         <v>1</v>
       </c>
       <c r="M13" s="18" t="s">
@@ -3609,7 +3623,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="33">
+      <c r="A14" s="21">
         <v>2020</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -3636,14 +3650,14 @@
       <c r="I14" s="4">
         <v>0.117693825326437</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="19">
         <v>1</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
         <v>2020-1-1</v>
       </c>
-      <c r="L14" s="32">
+      <c r="L14" s="20">
         <v>1</v>
       </c>
       <c r="M14" s="18" t="s">
@@ -3655,7 +3669,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="33">
+      <c r="A15" s="21">
         <v>2020</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -3682,14 +3696,14 @@
       <c r="I15" s="4">
         <v>2.4294368538321902</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="19">
         <v>2</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
         <v>2020-2-1</v>
       </c>
-      <c r="L15" s="32">
+      <c r="L15" s="20">
         <v>1</v>
       </c>
       <c r="M15" s="18" t="s">
@@ -3701,7 +3715,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="33">
+      <c r="A16" s="21">
         <v>2020</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -3728,14 +3742,14 @@
       <c r="I16" s="4">
         <v>0.82050901185126701</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="19">
         <v>3</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
         <v>2020-3-1</v>
       </c>
-      <c r="L16" s="32">
+      <c r="L16" s="20">
         <v>1</v>
       </c>
       <c r="M16" s="18" t="s">
@@ -3747,7 +3761,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="33">
+      <c r="A17" s="21">
         <v>2020</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -3774,14 +3788,14 @@
       <c r="I17" s="4">
         <v>19.5613551120402</v>
       </c>
-      <c r="J17" s="31">
+      <c r="J17" s="19">
         <v>4</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
         <v>2020-4-1</v>
       </c>
-      <c r="L17" s="32">
+      <c r="L17" s="20">
         <v>1</v>
       </c>
       <c r="M17" s="18" t="s">
@@ -3793,7 +3807,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="33">
+      <c r="A18" s="21">
         <v>2020</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -3820,14 +3834,14 @@
       <c r="I18" s="4">
         <v>56.629130145574202</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J18" s="19">
         <v>5</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
         <v>2020-5-1</v>
       </c>
-      <c r="L18" s="32">
+      <c r="L18" s="20">
         <v>1</v>
       </c>
       <c r="M18" s="18" t="s">
@@ -3839,7 +3853,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="33">
+      <c r="A19" s="21">
         <v>2020</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -3866,14 +3880,14 @@
       <c r="I19" s="4">
         <v>44.481780349415303</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="19">
         <v>6</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
         <v>2020-6-1</v>
       </c>
-      <c r="L19" s="32">
+      <c r="L19" s="20">
         <v>1</v>
       </c>
       <c r="M19" s="18" t="s">
@@ -3885,7 +3899,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="33">
+      <c r="A20" s="21">
         <v>2020</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -3912,14 +3926,14 @@
       <c r="I20" s="4">
         <v>35.160786129017502</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="19">
         <v>7</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
         <v>2020-7-1</v>
       </c>
-      <c r="L20" s="32">
+      <c r="L20" s="20">
         <v>1</v>
       </c>
       <c r="M20" s="18" t="s">
@@ -3931,7 +3945,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="33">
+      <c r="A21" s="21">
         <v>2020</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -3958,14 +3972,14 @@
       <c r="I21" s="4">
         <v>1.4981056088162801</v>
       </c>
-      <c r="J21" s="31">
+      <c r="J21" s="19">
         <v>8</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
         <v>2020-8-1</v>
       </c>
-      <c r="L21" s="32">
+      <c r="L21" s="20">
         <v>1</v>
       </c>
       <c r="M21" s="18" t="s">
@@ -3977,7 +3991,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="33">
+      <c r="A22" s="21">
         <v>2020</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -4004,14 +4018,14 @@
       <c r="I22" s="4">
         <v>2.5647810115301501E-2</v>
       </c>
-      <c r="J22" s="31">
+      <c r="J22" s="19">
         <v>9</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
         <v>2020-9-1</v>
       </c>
-      <c r="L22" s="32">
+      <c r="L22" s="20">
         <v>1</v>
       </c>
       <c r="M22" s="18" t="s">
@@ -4023,7 +4037,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="33">
+      <c r="A23" s="21">
         <v>2020</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -4050,14 +4064,14 @@
       <c r="I23" s="4">
         <v>0.102967589581501</v>
       </c>
-      <c r="J23" s="31">
+      <c r="J23" s="19">
         <v>10</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
         <v>2020-10-1</v>
       </c>
-      <c r="L23" s="32">
+      <c r="L23" s="20">
         <v>1</v>
       </c>
       <c r="M23" s="18" t="s">
@@ -4069,7 +4083,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="33">
+      <c r="A24" s="21">
         <v>2020</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -4096,14 +4110,14 @@
       <c r="I24" s="4">
         <v>0</v>
       </c>
-      <c r="J24" s="31">
+      <c r="J24" s="19">
         <v>11</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
         <v>2020-11-1</v>
       </c>
-      <c r="L24" s="32">
+      <c r="L24" s="20">
         <v>1</v>
       </c>
       <c r="M24" s="18" t="s">
@@ -4115,7 +4129,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="33">
+      <c r="A25" s="21">
         <v>2020</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -4142,14 +4156,14 @@
       <c r="I25" s="4">
         <v>5.7368077541091099E-2</v>
       </c>
-      <c r="J25" s="31">
+      <c r="J25" s="19">
         <v>12</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
         <v>2020-12-1</v>
       </c>
-      <c r="L25" s="32">
+      <c r="L25" s="20">
         <v>1</v>
       </c>
       <c r="M25" s="18" t="s">
@@ -4161,7 +4175,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="33">
+      <c r="A26" s="21">
         <v>2021</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4188,14 +4202,14 @@
       <c r="I26" s="4">
         <v>4.2795329549786203E-2</v>
       </c>
-      <c r="J26" s="31">
+      <c r="J26" s="19">
         <v>1</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
         <v>2021-1-1</v>
       </c>
-      <c r="L26" s="32">
+      <c r="L26" s="20">
         <v>1</v>
       </c>
       <c r="M26" s="18" t="s">
@@ -4207,7 +4221,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="33">
+      <c r="A27" s="21">
         <v>2021</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -4234,14 +4248,14 @@
       <c r="I27" s="4">
         <v>2.1833760448751301E-2</v>
       </c>
-      <c r="J27" s="31">
+      <c r="J27" s="19">
         <v>2</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="0"/>
         <v>2021-2-1</v>
       </c>
-      <c r="L27" s="32">
+      <c r="L27" s="20">
         <v>1</v>
       </c>
       <c r="M27" s="18" t="s">
@@ -4253,7 +4267,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="33">
+      <c r="A28" s="21">
         <v>2021</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -4280,14 +4294,14 @@
       <c r="I28" s="4">
         <v>0.18916995846240001</v>
       </c>
-      <c r="J28" s="31">
+      <c r="J28" s="19">
         <v>3</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
         <v>2021-3-1</v>
       </c>
-      <c r="L28" s="32">
+      <c r="L28" s="20">
         <v>1</v>
       </c>
       <c r="M28" s="18" t="s">
@@ -4299,7 +4313,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="33">
+      <c r="A29" s="21">
         <v>2021</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -4326,14 +4340,14 @@
       <c r="I29" s="4">
         <v>1.78626979944844E-3</v>
       </c>
-      <c r="J29" s="31">
+      <c r="J29" s="19">
         <v>4</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="0"/>
         <v>2021-4-1</v>
       </c>
-      <c r="L29" s="32">
+      <c r="L29" s="20">
         <v>1</v>
       </c>
       <c r="M29" s="18" t="s">
@@ -4345,7 +4359,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="33">
+      <c r="A30" s="21">
         <v>2021</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -4372,14 +4386,14 @@
       <c r="I30" s="4">
         <v>1.7406562715436901E-2</v>
       </c>
-      <c r="J30" s="31">
+      <c r="J30" s="19">
         <v>5</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
         <v>2021-5-1</v>
       </c>
-      <c r="L30" s="32">
+      <c r="L30" s="20">
         <v>1</v>
       </c>
       <c r="M30" s="18" t="s">
@@ -4391,7 +4405,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="33">
+      <c r="A31" s="21">
         <v>2021</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -4418,14 +4432,14 @@
       <c r="I31" s="17">
         <v>0.23391672797858201</v>
       </c>
-      <c r="J31" s="31">
+      <c r="J31" s="19">
         <v>6</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="0"/>
         <v>2021-6-1</v>
       </c>
-      <c r="L31" s="32">
+      <c r="L31" s="20">
         <v>1</v>
       </c>
       <c r="M31" s="18" t="s">
@@ -4531,7 +4545,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="29" t="s">
         <v>114</v>
       </c>
       <c r="B2">
@@ -4605,7 +4619,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="29" t="s">
         <v>115</v>
       </c>
       <c r="B3">
@@ -4679,7 +4693,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="29" t="s">
         <v>116</v>
       </c>
       <c r="B4">
@@ -4753,7 +4767,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="29" t="s">
         <v>117</v>
       </c>
       <c r="B5">
@@ -4824,7 +4838,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="29" t="s">
         <v>118</v>
       </c>
       <c r="B6">
@@ -4895,7 +4909,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="29" t="s">
         <v>119</v>
       </c>
       <c r="B7">
@@ -4963,7 +4977,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="29" t="s">
         <v>120</v>
       </c>
       <c r="B8">
@@ -5031,7 +5045,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="29" t="s">
         <v>121</v>
       </c>
       <c r="B9">
@@ -5102,7 +5116,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B10">
@@ -5173,7 +5187,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="29" t="s">
         <v>123</v>
       </c>
       <c r="B11">
@@ -5244,7 +5258,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="29" t="s">
         <v>124</v>
       </c>
       <c r="B12">
@@ -5315,7 +5329,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="29" t="s">
         <v>125</v>
       </c>
       <c r="B13">
@@ -5386,7 +5400,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="29" t="s">
         <v>126</v>
       </c>
       <c r="B14">
@@ -5556,10 +5570,10 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="M2" s="41"/>
+      <c r="M2" s="29"/>
       <c r="V2">
         <v>146</v>
       </c>
@@ -5571,10 +5585,10 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="M3" s="41"/>
+      <c r="M3" s="29"/>
       <c r="V3">
         <v>35</v>
       </c>
@@ -5586,10 +5600,10 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="M4" s="41"/>
+      <c r="M4" s="29"/>
       <c r="V4">
         <v>51</v>
       </c>
@@ -5601,10 +5615,10 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="M5" s="41"/>
+      <c r="M5" s="29"/>
       <c r="V5">
         <v>79</v>
       </c>
@@ -5613,10 +5627,10 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="M6" s="41"/>
+      <c r="M6" s="29"/>
       <c r="V6">
         <v>15</v>
       </c>
@@ -5625,10 +5639,10 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="M7" s="41"/>
+      <c r="M7" s="29"/>
       <c r="V7">
         <v>56</v>
       </c>
@@ -5637,10 +5651,10 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="M8" s="41"/>
+      <c r="M8" s="29"/>
       <c r="V8">
         <v>4</v>
       </c>
@@ -5649,10 +5663,10 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="M9" s="41"/>
+      <c r="M9" s="29"/>
       <c r="V9">
         <v>13</v>
       </c>
@@ -5661,10 +5675,10 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="M10" s="41"/>
+      <c r="M10" s="29"/>
       <c r="V10">
         <v>11</v>
       </c>
@@ -5673,10 +5687,10 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="M11" s="41"/>
+      <c r="M11" s="29"/>
       <c r="V11">
         <v>38</v>
       </c>
@@ -5685,10 +5699,10 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="M12" s="41"/>
+      <c r="M12" s="29"/>
       <c r="V12">
         <v>83</v>
       </c>
@@ -5697,10 +5711,10 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="M13" s="41"/>
+      <c r="M13" s="29"/>
       <c r="V13">
         <v>58</v>
       </c>
@@ -5709,13 +5723,13 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="29" t="s">
         <v>126</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14" s="41" t="s">
+      <c r="M14" s="29" t="s">
         <v>131</v>
       </c>
       <c r="N14">
@@ -5765,7 +5779,7 @@
   <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5849,7 +5863,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="29" t="s">
         <v>138</v>
       </c>
       <c r="B2">
@@ -5923,7 +5937,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="29" t="s">
         <v>139</v>
       </c>
       <c r="B3">
@@ -5997,7 +6011,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="29" t="s">
         <v>140</v>
       </c>
       <c r="B4">
@@ -6071,7 +6085,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="29" t="s">
         <v>141</v>
       </c>
       <c r="B5">
@@ -6145,7 +6159,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="29" t="s">
         <v>142</v>
       </c>
       <c r="B6">
@@ -6219,7 +6233,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="29" t="s">
         <v>143</v>
       </c>
       <c r="B7">
@@ -6293,7 +6307,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="29" t="s">
         <v>144</v>
       </c>
       <c r="B8">
@@ -6367,7 +6381,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="29" t="s">
         <v>145</v>
       </c>
       <c r="B9">
@@ -6537,10 +6551,10 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="29" t="s">
         <v>127</v>
       </c>
       <c r="N2">
@@ -6578,10 +6592,10 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="29" t="s">
         <v>128</v>
       </c>
       <c r="N3">
@@ -6619,10 +6633,10 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="29" t="s">
         <v>129</v>
       </c>
       <c r="N4">
@@ -6660,10 +6674,10 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="M5" s="41" t="s">
+      <c r="M5" s="29" t="s">
         <v>130</v>
       </c>
       <c r="N5">
@@ -6698,10 +6712,10 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="M6" s="41" t="s">
+      <c r="M6" s="29" t="s">
         <v>131</v>
       </c>
       <c r="N6">
@@ -6736,10 +6750,10 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="M7" s="41" t="s">
+      <c r="M7" s="29" t="s">
         <v>131</v>
       </c>
       <c r="N7">
@@ -6774,10 +6788,10 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="M8" s="41" t="s">
+      <c r="M8" s="29" t="s">
         <v>131</v>
       </c>
       <c r="N8">
@@ -6812,10 +6826,10 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="M9" s="41" t="s">
+      <c r="M9" s="29" t="s">
         <v>131</v>
       </c>
       <c r="N9">
@@ -6850,10 +6864,10 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="M10" s="41" t="s">
+      <c r="M10" s="29" t="s">
         <v>131</v>
       </c>
       <c r="N10">
@@ -6888,10 +6902,10 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="M11" s="41" t="s">
+      <c r="M11" s="29" t="s">
         <v>132</v>
       </c>
       <c r="N11">
@@ -6926,10 +6940,10 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="M12" s="41" t="s">
+      <c r="M12" s="29" t="s">
         <v>133</v>
       </c>
       <c r="N12">
@@ -6964,13 +6978,13 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="29" t="s">
         <v>125</v>
       </c>
       <c r="L13">
         <v>1470</v>
       </c>
-      <c r="M13" s="41" t="s">
+      <c r="M13" s="29" t="s">
         <v>134</v>
       </c>
       <c r="N13">
@@ -7005,13 +7019,13 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="29" t="s">
         <v>126</v>
       </c>
       <c r="L14">
         <v>1470</v>
       </c>
-      <c r="M14" s="41" t="s">
+      <c r="M14" s="29" t="s">
         <v>135</v>
       </c>
       <c r="N14">
@@ -7049,10 +7063,10 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="M15" s="41"/>
+      <c r="M15" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7151,7 +7165,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="29" t="s">
         <v>114</v>
       </c>
       <c r="B2">
@@ -7225,7 +7239,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="29" t="s">
         <v>115</v>
       </c>
       <c r="B3">
@@ -7299,7 +7313,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="29" t="s">
         <v>116</v>
       </c>
       <c r="B4">
@@ -7373,7 +7387,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="29" t="s">
         <v>117</v>
       </c>
       <c r="B5">
@@ -7444,7 +7458,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="29" t="s">
         <v>118</v>
       </c>
       <c r="B6">
@@ -7515,7 +7529,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="29" t="s">
         <v>119</v>
       </c>
       <c r="B7">
@@ -7586,7 +7600,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="29" t="s">
         <v>120</v>
       </c>
       <c r="B8">
@@ -7657,7 +7671,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="29" t="s">
         <v>121</v>
       </c>
       <c r="B9">
@@ -7728,7 +7742,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B10">
@@ -7799,7 +7813,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="29" t="s">
         <v>123</v>
       </c>
       <c r="B11">
@@ -7870,7 +7884,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="29" t="s">
         <v>124</v>
       </c>
       <c r="B12">
@@ -7941,7 +7955,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="29" t="s">
         <v>125</v>
       </c>
       <c r="B13">
@@ -8012,7 +8026,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="29" t="s">
         <v>126</v>
       </c>
       <c r="B14">
@@ -8182,7 +8196,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="29" t="s">
         <v>114</v>
       </c>
       <c r="B2">
@@ -8256,7 +8270,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="29" t="s">
         <v>115</v>
       </c>
       <c r="B3">
@@ -8330,7 +8344,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="29" t="s">
         <v>116</v>
       </c>
       <c r="B4">
@@ -8404,7 +8418,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="29" t="s">
         <v>117</v>
       </c>
       <c r="B5">
@@ -8478,7 +8492,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="29" t="s">
         <v>118</v>
       </c>
       <c r="B6">
@@ -8552,7 +8566,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="29" t="s">
         <v>119</v>
       </c>
       <c r="B7">
@@ -8623,7 +8637,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="29" t="s">
         <v>120</v>
       </c>
       <c r="B8">
@@ -8694,7 +8708,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="29" t="s">
         <v>121</v>
       </c>
       <c r="B9">
@@ -8768,7 +8782,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B10">
@@ -8842,7 +8856,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="29" t="s">
         <v>123</v>
       </c>
       <c r="B11">
@@ -8916,7 +8930,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="29" t="s">
         <v>124</v>
       </c>
       <c r="B12">
@@ -8990,7 +9004,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="29" t="s">
         <v>125</v>
       </c>
       <c r="B13">
@@ -9064,7 +9078,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="29" t="s">
         <v>126</v>
       </c>
       <c r="B14">
@@ -9234,7 +9248,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="29" t="s">
         <v>114</v>
       </c>
       <c r="B2">
@@ -9308,7 +9322,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="29" t="s">
         <v>115</v>
       </c>
       <c r="B3">
@@ -9382,7 +9396,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="29" t="s">
         <v>116</v>
       </c>
       <c r="B4">
@@ -9456,7 +9470,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="29" t="s">
         <v>117</v>
       </c>
       <c r="B5">
@@ -9527,7 +9541,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="29" t="s">
         <v>118</v>
       </c>
       <c r="B6">
@@ -9598,7 +9612,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="29" t="s">
         <v>119</v>
       </c>
       <c r="B7">
@@ -9669,7 +9683,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="29" t="s">
         <v>120</v>
       </c>
       <c r="B8">
@@ -9740,7 +9754,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="29" t="s">
         <v>121</v>
       </c>
       <c r="B9">
@@ -9811,7 +9825,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B10">
@@ -9882,7 +9896,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="29" t="s">
         <v>123</v>
       </c>
       <c r="B11">
@@ -9953,7 +9967,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="29" t="s">
         <v>124</v>
       </c>
       <c r="B12">
@@ -10024,7 +10038,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="29" t="s">
         <v>125</v>
       </c>
       <c r="B13">
@@ -10095,7 +10109,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="29" t="s">
         <v>126</v>
       </c>
       <c r="B14">
@@ -10180,8 +10194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BD4764-BD1C-4AC7-A8C3-AF1408A3E3DB}">
   <dimension ref="A1:Y79"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:A79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10267,7 +10281,7 @@
       <c r="A2" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="29" t="s">
         <v>114</v>
       </c>
       <c r="C2">
@@ -10344,7 +10358,7 @@
       <c r="A3" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="29" t="s">
         <v>115</v>
       </c>
       <c r="C3">
@@ -10421,7 +10435,7 @@
       <c r="A4" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="29" t="s">
         <v>116</v>
       </c>
       <c r="C4">
@@ -10498,7 +10512,7 @@
       <c r="A5" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="29" t="s">
         <v>117</v>
       </c>
       <c r="C5">
@@ -10572,7 +10586,7 @@
       <c r="A6" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="29" t="s">
         <v>118</v>
       </c>
       <c r="C6">
@@ -10646,7 +10660,7 @@
       <c r="A7" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="29" t="s">
         <v>119</v>
       </c>
       <c r="C7">
@@ -10720,7 +10734,7 @@
       <c r="A8" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="29" t="s">
         <v>120</v>
       </c>
       <c r="C8">
@@ -10794,7 +10808,7 @@
       <c r="A9" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="29" t="s">
         <v>121</v>
       </c>
       <c r="C9">
@@ -10868,7 +10882,7 @@
       <c r="A10" t="s">
         <v>147</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C10">
@@ -10942,7 +10956,7 @@
       <c r="A11" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="29" t="s">
         <v>123</v>
       </c>
       <c r="C11">
@@ -11016,7 +11030,7 @@
       <c r="A12" t="s">
         <v>147</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="29" t="s">
         <v>124</v>
       </c>
       <c r="C12">
@@ -11090,7 +11104,7 @@
       <c r="A13" t="s">
         <v>147</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="29" t="s">
         <v>125</v>
       </c>
       <c r="C13">
@@ -11164,7 +11178,7 @@
       <c r="A14" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="29" t="s">
         <v>126</v>
       </c>
       <c r="C14">
@@ -11241,7 +11255,7 @@
       <c r="A15" t="s">
         <v>148</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="29" t="s">
         <v>114</v>
       </c>
       <c r="C15">
@@ -11318,7 +11332,7 @@
       <c r="A16" t="s">
         <v>148</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="29" t="s">
         <v>115</v>
       </c>
       <c r="C16">
@@ -11395,7 +11409,7 @@
       <c r="A17" t="s">
         <v>148</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="29" t="s">
         <v>116</v>
       </c>
       <c r="C17">
@@ -11472,7 +11486,7 @@
       <c r="A18" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="29" t="s">
         <v>117</v>
       </c>
       <c r="C18">
@@ -11549,7 +11563,7 @@
       <c r="A19" t="s">
         <v>148</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="29" t="s">
         <v>118</v>
       </c>
       <c r="C19">
@@ -11626,7 +11640,7 @@
       <c r="A20" t="s">
         <v>148</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="29" t="s">
         <v>119</v>
       </c>
       <c r="C20">
@@ -11700,7 +11714,7 @@
       <c r="A21" t="s">
         <v>148</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="29" t="s">
         <v>120</v>
       </c>
       <c r="C21">
@@ -11774,7 +11788,7 @@
       <c r="A22" t="s">
         <v>148</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="29" t="s">
         <v>121</v>
       </c>
       <c r="C22">
@@ -11851,7 +11865,7 @@
       <c r="A23" t="s">
         <v>148</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C23">
@@ -11928,7 +11942,7 @@
       <c r="A24" t="s">
         <v>148</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="29" t="s">
         <v>123</v>
       </c>
       <c r="C24">
@@ -12005,7 +12019,7 @@
       <c r="A25" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="29" t="s">
         <v>124</v>
       </c>
       <c r="C25">
@@ -12082,7 +12096,7 @@
       <c r="A26" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="29" t="s">
         <v>125</v>
       </c>
       <c r="C26">
@@ -12159,7 +12173,7 @@
       <c r="A27" t="s">
         <v>148</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="29" t="s">
         <v>126</v>
       </c>
       <c r="C27">
@@ -12236,7 +12250,7 @@
       <c r="A28" t="s">
         <v>149</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="29" t="s">
         <v>114</v>
       </c>
       <c r="C28">
@@ -12313,7 +12327,7 @@
       <c r="A29" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="29" t="s">
         <v>115</v>
       </c>
       <c r="C29">
@@ -12390,7 +12404,7 @@
       <c r="A30" t="s">
         <v>149</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="29" t="s">
         <v>116</v>
       </c>
       <c r="C30">
@@ -12467,7 +12481,7 @@
       <c r="A31" t="s">
         <v>149</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="29" t="s">
         <v>117</v>
       </c>
       <c r="C31">
@@ -12541,7 +12555,7 @@
       <c r="A32" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="29" t="s">
         <v>118</v>
       </c>
       <c r="C32">
@@ -12615,7 +12629,7 @@
       <c r="A33" t="s">
         <v>149</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="29" t="s">
         <v>119</v>
       </c>
       <c r="C33">
@@ -12689,7 +12703,7 @@
       <c r="A34" t="s">
         <v>149</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="29" t="s">
         <v>120</v>
       </c>
       <c r="C34">
@@ -12763,7 +12777,7 @@
       <c r="A35" t="s">
         <v>149</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="29" t="s">
         <v>121</v>
       </c>
       <c r="C35">
@@ -12837,7 +12851,7 @@
       <c r="A36" t="s">
         <v>149</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C36">
@@ -12911,7 +12925,7 @@
       <c r="A37" t="s">
         <v>149</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="29" t="s">
         <v>123</v>
       </c>
       <c r="C37">
@@ -12985,7 +12999,7 @@
       <c r="A38" t="s">
         <v>149</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="29" t="s">
         <v>124</v>
       </c>
       <c r="C38">
@@ -13059,7 +13073,7 @@
       <c r="A39" t="s">
         <v>149</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="29" t="s">
         <v>125</v>
       </c>
       <c r="C39">
@@ -13133,7 +13147,7 @@
       <c r="A40" t="s">
         <v>149</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="29" t="s">
         <v>126</v>
       </c>
       <c r="C40">
@@ -13210,10 +13224,10 @@
       <c r="A41" t="s">
         <v>150</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="N41" s="41" t="s">
+      <c r="N41" s="29" t="s">
         <v>127</v>
       </c>
       <c r="O41">
@@ -13254,10 +13268,10 @@
       <c r="A42" t="s">
         <v>150</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="N42" s="41" t="s">
+      <c r="N42" s="29" t="s">
         <v>128</v>
       </c>
       <c r="O42">
@@ -13298,10 +13312,10 @@
       <c r="A43" t="s">
         <v>150</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="N43" s="41" t="s">
+      <c r="N43" s="29" t="s">
         <v>129</v>
       </c>
       <c r="O43">
@@ -13342,10 +13356,10 @@
       <c r="A44" t="s">
         <v>150</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="N44" s="41" t="s">
+      <c r="N44" s="29" t="s">
         <v>130</v>
       </c>
       <c r="O44">
@@ -13383,10 +13397,10 @@
       <c r="A45" t="s">
         <v>150</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="N45" s="41" t="s">
+      <c r="N45" s="29" t="s">
         <v>131</v>
       </c>
       <c r="O45">
@@ -13424,10 +13438,10 @@
       <c r="A46" t="s">
         <v>150</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="N46" s="41" t="s">
+      <c r="N46" s="29" t="s">
         <v>131</v>
       </c>
       <c r="O46">
@@ -13465,10 +13479,10 @@
       <c r="A47" t="s">
         <v>150</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="N47" s="41" t="s">
+      <c r="N47" s="29" t="s">
         <v>131</v>
       </c>
       <c r="O47">
@@ -13506,10 +13520,10 @@
       <c r="A48" t="s">
         <v>150</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="N48" s="41" t="s">
+      <c r="N48" s="29" t="s">
         <v>131</v>
       </c>
       <c r="O48">
@@ -13547,10 +13561,10 @@
       <c r="A49" t="s">
         <v>150</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="N49" s="41" t="s">
+      <c r="N49" s="29" t="s">
         <v>131</v>
       </c>
       <c r="O49">
@@ -13588,10 +13602,10 @@
       <c r="A50" t="s">
         <v>150</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="N50" s="41" t="s">
+      <c r="N50" s="29" t="s">
         <v>132</v>
       </c>
       <c r="O50">
@@ -13629,10 +13643,10 @@
       <c r="A51" t="s">
         <v>150</v>
       </c>
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="N51" s="41" t="s">
+      <c r="N51" s="29" t="s">
         <v>133</v>
       </c>
       <c r="O51">
@@ -13670,13 +13684,13 @@
       <c r="A52" t="s">
         <v>150</v>
       </c>
-      <c r="B52" s="41" t="s">
+      <c r="B52" s="29" t="s">
         <v>125</v>
       </c>
       <c r="M52">
         <v>1470</v>
       </c>
-      <c r="N52" s="41" t="s">
+      <c r="N52" s="29" t="s">
         <v>134</v>
       </c>
       <c r="O52">
@@ -13714,13 +13728,13 @@
       <c r="A53" t="s">
         <v>150</v>
       </c>
-      <c r="B53" s="41" t="s">
+      <c r="B53" s="29" t="s">
         <v>126</v>
       </c>
       <c r="M53">
         <v>1470</v>
       </c>
-      <c r="N53" s="41" t="s">
+      <c r="N53" s="29" t="s">
         <v>135</v>
       </c>
       <c r="O53">
@@ -13761,7 +13775,7 @@
       <c r="A54" t="s">
         <v>142</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="29" t="s">
         <v>114</v>
       </c>
       <c r="C54">
@@ -13838,7 +13852,7 @@
       <c r="A55" t="s">
         <v>142</v>
       </c>
-      <c r="B55" s="41" t="s">
+      <c r="B55" s="29" t="s">
         <v>115</v>
       </c>
       <c r="C55">
@@ -13915,7 +13929,7 @@
       <c r="A56" t="s">
         <v>142</v>
       </c>
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="29" t="s">
         <v>116</v>
       </c>
       <c r="C56">
@@ -13992,7 +14006,7 @@
       <c r="A57" t="s">
         <v>142</v>
       </c>
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="29" t="s">
         <v>117</v>
       </c>
       <c r="C57">
@@ -14066,7 +14080,7 @@
       <c r="A58" t="s">
         <v>142</v>
       </c>
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="29" t="s">
         <v>118</v>
       </c>
       <c r="C58">
@@ -14140,7 +14154,7 @@
       <c r="A59" t="s">
         <v>142</v>
       </c>
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="29" t="s">
         <v>119</v>
       </c>
       <c r="C59">
@@ -14211,7 +14225,7 @@
       <c r="A60" t="s">
         <v>142</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B60" s="29" t="s">
         <v>120</v>
       </c>
       <c r="C60">
@@ -14282,7 +14296,7 @@
       <c r="A61" t="s">
         <v>142</v>
       </c>
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="29" t="s">
         <v>121</v>
       </c>
       <c r="C61">
@@ -14356,7 +14370,7 @@
       <c r="A62" t="s">
         <v>142</v>
       </c>
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C62">
@@ -14430,7 +14444,7 @@
       <c r="A63" t="s">
         <v>142</v>
       </c>
-      <c r="B63" s="41" t="s">
+      <c r="B63" s="29" t="s">
         <v>123</v>
       </c>
       <c r="C63">
@@ -14504,7 +14518,7 @@
       <c r="A64" t="s">
         <v>142</v>
       </c>
-      <c r="B64" s="41" t="s">
+      <c r="B64" s="29" t="s">
         <v>124</v>
       </c>
       <c r="C64">
@@ -14578,7 +14592,7 @@
       <c r="A65" t="s">
         <v>142</v>
       </c>
-      <c r="B65" s="41" t="s">
+      <c r="B65" s="29" t="s">
         <v>125</v>
       </c>
       <c r="C65">
@@ -14652,7 +14666,7 @@
       <c r="A66" t="s">
         <v>142</v>
       </c>
-      <c r="B66" s="41" t="s">
+      <c r="B66" s="29" t="s">
         <v>126</v>
       </c>
       <c r="C66">
@@ -14729,10 +14743,10 @@
       <c r="A67" t="s">
         <v>136</v>
       </c>
-      <c r="B67" s="41" t="s">
+      <c r="B67" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="N67" s="41"/>
+      <c r="N67" s="29"/>
       <c r="W67">
         <v>146</v>
       </c>
@@ -14741,10 +14755,10 @@
       <c r="A68" t="s">
         <v>136</v>
       </c>
-      <c r="B68" s="41" t="s">
+      <c r="B68" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="N68" s="41"/>
+      <c r="N68" s="29"/>
       <c r="W68">
         <v>35</v>
       </c>
@@ -14753,10 +14767,10 @@
       <c r="A69" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="41" t="s">
+      <c r="B69" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="N69" s="41"/>
+      <c r="N69" s="29"/>
       <c r="W69">
         <v>51</v>
       </c>
@@ -14765,10 +14779,10 @@
       <c r="A70" t="s">
         <v>136</v>
       </c>
-      <c r="B70" s="41" t="s">
+      <c r="B70" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="N70" s="41"/>
+      <c r="N70" s="29"/>
       <c r="W70">
         <v>79</v>
       </c>
@@ -14777,10 +14791,10 @@
       <c r="A71" t="s">
         <v>136</v>
       </c>
-      <c r="B71" s="41" t="s">
+      <c r="B71" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="N71" s="41"/>
+      <c r="N71" s="29"/>
       <c r="W71">
         <v>15</v>
       </c>
@@ -14789,10 +14803,10 @@
       <c r="A72" t="s">
         <v>136</v>
       </c>
-      <c r="B72" s="41" t="s">
+      <c r="B72" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="N72" s="41"/>
+      <c r="N72" s="29"/>
       <c r="W72">
         <v>56</v>
       </c>
@@ -14801,10 +14815,10 @@
       <c r="A73" t="s">
         <v>136</v>
       </c>
-      <c r="B73" s="41" t="s">
+      <c r="B73" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="N73" s="41"/>
+      <c r="N73" s="29"/>
       <c r="W73">
         <v>4</v>
       </c>
@@ -14813,10 +14827,10 @@
       <c r="A74" t="s">
         <v>136</v>
       </c>
-      <c r="B74" s="41" t="s">
+      <c r="B74" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="N74" s="41"/>
+      <c r="N74" s="29"/>
       <c r="W74">
         <v>13</v>
       </c>
@@ -14825,10 +14839,10 @@
       <c r="A75" t="s">
         <v>136</v>
       </c>
-      <c r="B75" s="41" t="s">
+      <c r="B75" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="N75" s="41"/>
+      <c r="N75" s="29"/>
       <c r="W75">
         <v>11</v>
       </c>
@@ -14837,10 +14851,10 @@
       <c r="A76" t="s">
         <v>136</v>
       </c>
-      <c r="B76" s="41" t="s">
+      <c r="B76" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="N76" s="41"/>
+      <c r="N76" s="29"/>
       <c r="W76">
         <v>38</v>
       </c>
@@ -14849,10 +14863,10 @@
       <c r="A77" t="s">
         <v>136</v>
       </c>
-      <c r="B77" s="41" t="s">
+      <c r="B77" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="N77" s="41"/>
+      <c r="N77" s="29"/>
       <c r="W77">
         <v>83</v>
       </c>
@@ -14861,10 +14875,10 @@
       <c r="A78" t="s">
         <v>136</v>
       </c>
-      <c r="B78" s="41" t="s">
+      <c r="B78" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="N78" s="41"/>
+      <c r="N78" s="29"/>
       <c r="W78">
         <v>58</v>
       </c>
@@ -14873,13 +14887,13 @@
       <c r="A79" t="s">
         <v>136</v>
       </c>
-      <c r="B79" s="41" t="s">
+      <c r="B79" s="29" t="s">
         <v>126</v>
       </c>
       <c r="M79">
         <v>0</v>
       </c>
-      <c r="N79" s="41" t="s">
+      <c r="N79" s="29" t="s">
         <v>131</v>
       </c>
       <c r="O79">
@@ -14983,7 +14997,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="19">
+      <c r="A2" s="30">
         <v>2020</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -15030,7 +15044,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
@@ -15075,7 +15089,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
@@ -15120,7 +15134,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
@@ -15165,7 +15179,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
@@ -15210,7 +15224,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
@@ -15255,7 +15269,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
@@ -15300,7 +15314,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -15345,7 +15359,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
@@ -15390,7 +15404,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
@@ -15435,7 +15449,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
@@ -15480,7 +15494,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
@@ -15525,7 +15539,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="33">
         <v>2021</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -15572,7 +15586,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
@@ -15617,7 +15631,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="6" t="s">
         <v>23</v>
       </c>
@@ -15662,7 +15676,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="6" t="s">
         <v>24</v>
       </c>
@@ -15707,7 +15721,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="6" t="s">
         <v>13</v>
       </c>
@@ -15752,7 +15766,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
@@ -15820,36 +15834,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23" t="s">
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
     </row>
     <row r="2" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="1" t="s">
         <v>42</v>
       </c>
@@ -15888,7 +15902,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="19">
+      <c r="A3" s="30">
         <v>2020</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -15932,7 +15946,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
@@ -15974,7 +15988,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
@@ -16016,7 +16030,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
@@ -16058,7 +16072,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
@@ -16100,7 +16114,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
@@ -16142,7 +16156,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="6" t="s">
         <v>26</v>
       </c>
@@ -16184,7 +16198,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
@@ -16226,7 +16240,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
@@ -16268,7 +16282,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
@@ -16310,7 +16324,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="6" t="s">
         <v>19</v>
       </c>
@@ -16352,7 +16366,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
@@ -16394,7 +16408,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="22">
+      <c r="A15" s="33">
         <v>2021</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -16438,7 +16452,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="6" t="s">
         <v>22</v>
       </c>
@@ -16480,7 +16494,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
@@ -16522,7 +16536,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="6" t="s">
         <v>24</v>
       </c>
@@ -16564,7 +16578,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="6" t="s">
         <v>13</v>
       </c>
@@ -16606,7 +16620,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="6" t="s">
         <v>25</v>
       </c>
@@ -16727,7 +16741,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="19">
+      <c r="A2" s="30">
         <v>2020</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -16774,7 +16788,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
@@ -16819,7 +16833,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
@@ -16864,7 +16878,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
@@ -16909,7 +16923,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
@@ -16954,7 +16968,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
@@ -16999,7 +17013,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
@@ -17044,7 +17058,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -17089,7 +17103,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
@@ -17134,7 +17148,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
@@ -17179,7 +17193,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
@@ -17224,7 +17238,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
@@ -17269,7 +17283,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="33">
         <v>2021</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -17316,7 +17330,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
@@ -17361,7 +17375,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="6" t="s">
         <v>23</v>
       </c>
@@ -17406,7 +17420,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="6" t="s">
         <v>24</v>
       </c>
@@ -17451,7 +17465,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="6" t="s">
         <v>13</v>
       </c>
@@ -17496,7 +17510,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="6" t="s">
         <v>25</v>
       </c>
@@ -17574,28 +17588,28 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
-      <c r="B1" s="25">
+      <c r="B1" s="36">
         <v>2020</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36">
         <v>2021</v>
       </c>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
@@ -18070,7 +18084,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:S9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18093,32 +18107,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="29"/>
-      <c r="B1" s="26">
+      <c r="A1" s="40"/>
+      <c r="B1" s="37">
         <v>2020</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="25">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="36">
         <v>2021</v>
       </c>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
+      <c r="A2" s="41"/>
       <c r="B2" s="12" t="s">
         <v>55</v>
       </c>
@@ -18600,36 +18614,39 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A6FAD91-8BB5-4F31-83F8-7E903FC347B5}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="35" t="s">
+    <row r="1" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="23" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="39">
+      <c r="G1" s="44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="27">
         <v>2020</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -18647,9 +18664,13 @@
       <c r="F2" s="4">
         <v>4.4996285902938471</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="39">
+      <c r="G2" t="str">
+        <f>_xlfn.TEXTJOIN("-",,A2,B2)</f>
+        <v xml:space="preserve">2020-Enero </v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="27">
         <v>2020</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -18667,9 +18688,13 @@
       <c r="F3" s="4">
         <v>2.4831175241588843</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="39">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G19" si="0">_xlfn.TEXTJOIN("-",,A3,B3)</f>
+        <v xml:space="preserve">2020-Febrero </v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="27">
         <v>2020</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -18687,9 +18712,13 @@
       <c r="F4" s="4">
         <v>-6.8152792777678712</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="39">
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">2020-Marzo </v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="27">
         <v>2020</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -18707,9 +18736,13 @@
       <c r="F5" s="4">
         <v>-24.703527676998249</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="39">
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">2020-Abril </v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="27">
         <v>2020</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -18727,9 +18760,13 @@
       <c r="F6" s="4">
         <v>-30.677736635532337</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="39">
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-Mayo</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="27">
         <v>2020</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -18747,9 +18784,13 @@
       <c r="F7" s="4">
         <v>-39.290945048034345</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="39">
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">2020-Junio </v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="27">
         <v>2020</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -18767,9 +18808,13 @@
       <c r="F8" s="4">
         <v>-43.150007654085009</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="39">
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">2020-Julio </v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="27">
         <v>2020</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -18787,9 +18832,13 @@
       <c r="F9" s="4">
         <v>-47.455421140022494</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="39">
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-Agosto</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="27">
         <v>2020</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -18807,9 +18856,13 @@
       <c r="F10" s="4">
         <v>-45.08663386701334</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="39">
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-Septiembre</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="27">
         <v>2020</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -18827,9 +18880,13 @@
       <c r="F11" s="4">
         <v>-38.681489421924589</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="39">
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-Octubre</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="27">
         <v>2020</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -18847,9 +18904,13 @@
       <c r="F12" s="4">
         <v>-36.776403448220506</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="39">
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-Noviembre</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="27">
         <v>2020</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -18867,9 +18928,13 @@
       <c r="F13" s="4">
         <v>-30.78526260943708</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="40">
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-Diciembre</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="28">
         <v>2021</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -18887,9 +18952,13 @@
       <c r="F14" s="4">
         <v>-28.609114083013644</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="40">
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">2021-Enero </v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="28">
         <v>2021</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -18907,9 +18976,13 @@
       <c r="F15" s="4">
         <v>-28.814058980454071</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="40">
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">2021-Febrero </v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="28">
         <v>2021</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -18927,9 +19000,13 @@
       <c r="F16" s="4">
         <v>-19.456471837895773</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="40">
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">2021-Marzo </v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="28">
         <v>2021</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -18947,9 +19024,13 @@
       <c r="F17" s="4">
         <v>-3.9968688888704973</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="40">
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">2021-Abril </v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="28">
         <v>2021</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -18967,9 +19048,13 @@
       <c r="F18" s="4">
         <v>3.0169545824193733</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="40">
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021-Mayo</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="28">
         <v>2021</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -18986,6 +19071,10 @@
       </c>
       <c r="F19" s="17">
         <v>21.943207981580937</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">2021-Junio </v>
       </c>
     </row>
   </sheetData>
@@ -18998,14 +19087,18 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="29"/>
-      <c r="B1" s="30"/>
+      <c r="A1" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>151</v>
+      </c>
       <c r="C1" s="14" t="s">
         <v>48</v>
       </c>
@@ -19029,7 +19122,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="37">
+      <c r="A2" s="25">
         <v>2020</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -19058,7 +19151,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="37">
+      <c r="A3" s="25">
         <v>2020</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -19087,7 +19180,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="37">
+      <c r="A4" s="25">
         <v>2020</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -19116,7 +19209,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="37">
+      <c r="A5" s="25">
         <v>2020</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -19145,7 +19238,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="37">
+      <c r="A6" s="25">
         <v>2020</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -19174,7 +19267,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="37">
+      <c r="A7" s="25">
         <v>2020</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -19203,7 +19296,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="37">
+      <c r="A8" s="25">
         <v>2020</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -19232,7 +19325,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="37">
+      <c r="A9" s="25">
         <v>2020</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -19261,7 +19354,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="37">
+      <c r="A10" s="25">
         <v>2020</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -19290,7 +19383,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="37">
+      <c r="A11" s="25">
         <v>2020</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -19319,7 +19412,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="37">
+      <c r="A12" s="25">
         <v>2020</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -19348,7 +19441,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="37">
+      <c r="A13" s="25">
         <v>2020</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -19377,7 +19470,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
+      <c r="A14" s="26">
         <v>2021</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -19406,7 +19499,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
+      <c r="A15" s="26">
         <v>2021</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -19435,7 +19528,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
+      <c r="A16" s="26">
         <v>2021</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -19464,7 +19557,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
+      <c r="A17" s="26">
         <v>2021</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -19493,7 +19586,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
+      <c r="A18" s="26">
         <v>2021</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -19522,7 +19615,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
+      <c r="A19" s="26">
         <v>2021</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -19551,9 +19644,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Data/Turismo_consolidado_13.8.21.xlsx
+++ b/Data/Turismo_consolidado_13.8.21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Estudio\proyecto camara de comercio-20210502T212657Z-001\proyecto camara de comercio\dashboards\Graficas R y Python\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1BBDFB-F19B-45C8-B324-D351039D6E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D10735-B2F5-406C-BE75-35557F08766A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="16" xr2:uid="{9BE48BEF-8747-49BA-8F75-DA0FD59BF12C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="15" xr2:uid="{9BE48BEF-8747-49BA-8F75-DA0FD59BF12C}"/>
   </bookViews>
   <sheets>
     <sheet name="Ocupación_mensual" sheetId="1" r:id="rId1"/>
@@ -24,20 +24,20 @@
     <sheet name="sac_dis" sheetId="9" r:id="rId9"/>
     <sheet name="cruceros_5" sheetId="16" r:id="rId10"/>
     <sheet name="Table004 (Page 2) (3)" sheetId="17" r:id="rId11"/>
-    <sheet name="cruceros_resumen" sheetId="15" r:id="rId12"/>
-    <sheet name="cruceros_4" sheetId="14" r:id="rId13"/>
-    <sheet name="cruceros_3" sheetId="13" r:id="rId14"/>
-    <sheet name="cruceros_2" sheetId="12" r:id="rId15"/>
-    <sheet name="cruceros_1" sheetId="11" r:id="rId16"/>
+    <sheet name="cruceros_4" sheetId="14" r:id="rId12"/>
+    <sheet name="cruceros_3" sheetId="13" r:id="rId13"/>
+    <sheet name="cruceros_2" sheetId="12" r:id="rId14"/>
+    <sheet name="cruceros_1" sheetId="11" r:id="rId15"/>
+    <sheet name="cruceros_resumen" sheetId="15" r:id="rId16"/>
     <sheet name="Cruceros" sheetId="10" r:id="rId17"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="16" hidden="1">Cruceros!$B$1:$Y$79</definedName>
-    <definedName name="ExternalData_1" localSheetId="15" hidden="1">cruceros_1!$A$1:$X$14</definedName>
-    <definedName name="ExternalData_2" localSheetId="14" hidden="1">cruceros_2!$A$1:$X$14</definedName>
-    <definedName name="ExternalData_3" localSheetId="13" hidden="1">cruceros_3!$A$1:$X$14</definedName>
-    <definedName name="ExternalData_4" localSheetId="12" hidden="1">cruceros_4!$A$1:$X$15</definedName>
-    <definedName name="ExternalData_5" localSheetId="11" hidden="1">cruceros_resumen!$A$1:$X$9</definedName>
+    <definedName name="ExternalData_1" localSheetId="16" hidden="1">Cruceros!$B$1:$Y$61</definedName>
+    <definedName name="ExternalData_1" localSheetId="14" hidden="1">cruceros_1!$A$1:$X$14</definedName>
+    <definedName name="ExternalData_2" localSheetId="13" hidden="1">cruceros_2!$A$1:$X$14</definedName>
+    <definedName name="ExternalData_3" localSheetId="12" hidden="1">cruceros_3!$A$1:$X$14</definedName>
+    <definedName name="ExternalData_4" localSheetId="11" hidden="1">cruceros_4!$A$1:$X$15</definedName>
+    <definedName name="ExternalData_5" localSheetId="15" hidden="1">cruceros_resumen!$A$1:$X$9</definedName>
     <definedName name="ExternalData_6" localSheetId="9" hidden="1">cruceros_5!$A$1:$X$14</definedName>
     <definedName name="ExternalData_6" localSheetId="10" hidden="1">'Table004 (Page 2) (3)'!$A$1:$X$14</definedName>
   </definedNames>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="149">
   <si>
     <t>Año</t>
   </si>
@@ -502,21 +502,6 @@
     <t>Pasajeros embarcando en crucero en tránsito</t>
   </si>
   <si>
-    <t>DATOS RELEVANTES</t>
-  </si>
-  <si>
-    <t># Barcos Año</t>
-  </si>
-  <si>
-    <t>Pasajeros Año</t>
-  </si>
-  <si>
-    <t>Pasajeros en tránsito</t>
-  </si>
-  <si>
-    <t>Total Pasajeros Embarcando</t>
-  </si>
-  <si>
     <t>Tripulantes</t>
   </si>
   <si>
@@ -818,6 +803,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -853,11 +843,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2256,39 +2241,6 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_5" connectionId="8" xr16:uid="{FFFD04E1-0627-468B-9A70-03B1659098A7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="25">
-    <queryTableFields count="24">
-      <queryTableField id="1" name="DATOS RELEVANTES" tableColumnId="1"/>
-      <queryTableField id="2" name="1998" tableColumnId="2"/>
-      <queryTableField id="3" name="1999" tableColumnId="3"/>
-      <queryTableField id="4" name="2000" tableColumnId="4"/>
-      <queryTableField id="5" name="2001" tableColumnId="5"/>
-      <queryTableField id="6" name="2002" tableColumnId="6"/>
-      <queryTableField id="7" name="2003" tableColumnId="7"/>
-      <queryTableField id="8" name="2004" tableColumnId="8"/>
-      <queryTableField id="9" name="2005" tableColumnId="9"/>
-      <queryTableField id="10" name="2006" tableColumnId="10"/>
-      <queryTableField id="11" name="2007" tableColumnId="11"/>
-      <queryTableField id="12" name="2008" tableColumnId="12"/>
-      <queryTableField id="13" name="2009" tableColumnId="13"/>
-      <queryTableField id="14" name="2010" tableColumnId="14"/>
-      <queryTableField id="15" name="2011" tableColumnId="15"/>
-      <queryTableField id="16" name="2012" tableColumnId="16"/>
-      <queryTableField id="17" name="2013" tableColumnId="17"/>
-      <queryTableField id="18" name="2014" tableColumnId="18"/>
-      <queryTableField id="19" name="2015" tableColumnId="19"/>
-      <queryTableField id="20" name="2016" tableColumnId="20"/>
-      <queryTableField id="21" name="2017" tableColumnId="21"/>
-      <queryTableField id="22" name="2018" tableColumnId="22"/>
-      <queryTableField id="23" name="2019" tableColumnId="23"/>
-      <queryTableField id="24" name="2020" tableColumnId="24"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_4" connectionId="5" xr16:uid="{C44554AF-1B4C-4A09-9B0F-C45A3996E8A3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="25">
     <queryTableFields count="24">
@@ -2321,7 +2273,7 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_3" connectionId="4" xr16:uid="{AB16E925-8BF7-497F-8F1B-AB4E2DE6FD08}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="25">
     <queryTableFields count="24">
@@ -2354,7 +2306,7 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" connectionId="3" xr16:uid="{CC5CE354-9580-42AF-BAE7-92CB36B48FE0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="25">
     <queryTableFields count="24">
@@ -2387,11 +2339,44 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{3AAC3932-9BFD-42CB-B712-FCBFCEB68701}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="25">
     <queryTableFields count="24">
       <queryTableField id="1" name="Mes" tableColumnId="1"/>
+      <queryTableField id="2" name="1998" tableColumnId="2"/>
+      <queryTableField id="3" name="1999" tableColumnId="3"/>
+      <queryTableField id="4" name="2000" tableColumnId="4"/>
+      <queryTableField id="5" name="2001" tableColumnId="5"/>
+      <queryTableField id="6" name="2002" tableColumnId="6"/>
+      <queryTableField id="7" name="2003" tableColumnId="7"/>
+      <queryTableField id="8" name="2004" tableColumnId="8"/>
+      <queryTableField id="9" name="2005" tableColumnId="9"/>
+      <queryTableField id="10" name="2006" tableColumnId="10"/>
+      <queryTableField id="11" name="2007" tableColumnId="11"/>
+      <queryTableField id="12" name="2008" tableColumnId="12"/>
+      <queryTableField id="13" name="2009" tableColumnId="13"/>
+      <queryTableField id="14" name="2010" tableColumnId="14"/>
+      <queryTableField id="15" name="2011" tableColumnId="15"/>
+      <queryTableField id="16" name="2012" tableColumnId="16"/>
+      <queryTableField id="17" name="2013" tableColumnId="17"/>
+      <queryTableField id="18" name="2014" tableColumnId="18"/>
+      <queryTableField id="19" name="2015" tableColumnId="19"/>
+      <queryTableField id="20" name="2016" tableColumnId="20"/>
+      <queryTableField id="21" name="2017" tableColumnId="21"/>
+      <queryTableField id="22" name="2018" tableColumnId="22"/>
+      <queryTableField id="23" name="2019" tableColumnId="23"/>
+      <queryTableField id="24" name="2020" tableColumnId="24"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_5" connectionId="8" xr16:uid="{FFFD04E1-0627-468B-9A70-03B1659098A7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="25">
+    <queryTableFields count="24">
+      <queryTableField id="1" name="DATOS RELEVANTES" tableColumnId="1"/>
       <queryTableField id="2" name="1998" tableColumnId="2"/>
       <queryTableField id="3" name="1999" tableColumnId="3"/>
       <queryTableField id="4" name="2000" tableColumnId="4"/>
@@ -2520,39 +2505,6 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CBA38332-ACA1-448E-A93C-062A64AEA780}" name="Table005__Page_2" displayName="Table005__Page_2" ref="A1:X9" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:X9" xr:uid="{CBA38332-ACA1-448E-A93C-062A64AEA780}"/>
-  <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{3CA62071-D45F-442C-B6EB-76C18510E821}" uniqueName="1" name="DATOS RELEVANTES" queryTableFieldId="1" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{35684C3E-11B6-4919-8F4B-121668A46372}" uniqueName="2" name="1998" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{D20BC353-3D0B-4F6A-8F86-D0C80F5E9B69}" uniqueName="3" name="1999" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{5561F701-49DF-47D9-A852-B485391EFC63}" uniqueName="4" name="2000" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{981FC1A5-A168-4728-AA41-00817FCA54E5}" uniqueName="5" name="2001" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{DDF9F05F-BA19-471B-BE38-E9DF4453AB8D}" uniqueName="6" name="2002" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{937C2ECD-19FF-4428-989F-0B4B84A6C9AE}" uniqueName="7" name="2003" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{ACD046F1-357A-4CFB-A8F3-453C2273073B}" uniqueName="8" name="2004" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{88C2328C-2E53-4D0A-BD2C-CCC7EF0DE95F}" uniqueName="9" name="2005" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{07FE3E2B-E743-466B-AD30-3EA9B2EB2E1E}" uniqueName="10" name="2006" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{8CA9BFC5-A78C-4A74-B57D-79B552B74721}" uniqueName="11" name="2007" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{864FB69E-9B40-43D5-A91F-469D19EFB493}" uniqueName="12" name="2008" queryTableFieldId="12"/>
-    <tableColumn id="13" xr3:uid="{D99BE550-C163-45B9-83E9-177FFF2EA5CA}" uniqueName="13" name="2009" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{86DEDBB7-6E1E-435A-9890-BE91E5369714}" uniqueName="14" name="2010" queryTableFieldId="14"/>
-    <tableColumn id="15" xr3:uid="{B6F3B6BF-454E-41CA-A757-C35C9198CAA6}" uniqueName="15" name="2011" queryTableFieldId="15"/>
-    <tableColumn id="16" xr3:uid="{35F49D2A-AB75-490D-BEB7-774126D365CE}" uniqueName="16" name="2012" queryTableFieldId="16"/>
-    <tableColumn id="17" xr3:uid="{51CB3798-2D8C-4478-888D-465A761D3478}" uniqueName="17" name="2013" queryTableFieldId="17"/>
-    <tableColumn id="18" xr3:uid="{F2DB0B2E-D408-419E-900B-36A84B917738}" uniqueName="18" name="2014" queryTableFieldId="18"/>
-    <tableColumn id="19" xr3:uid="{5856E27A-82FB-4253-B0A5-80F14AE15180}" uniqueName="19" name="2015" queryTableFieldId="19"/>
-    <tableColumn id="20" xr3:uid="{C0BAB943-924B-4903-9BD9-B222A2EA39B5}" uniqueName="20" name="2016" queryTableFieldId="20"/>
-    <tableColumn id="21" xr3:uid="{975011D4-61BF-4523-AFB7-FF3BC0260FD3}" uniqueName="21" name="2017" queryTableFieldId="21"/>
-    <tableColumn id="22" xr3:uid="{D9CE6FBA-1CD8-48A3-97A0-8262F1F43653}" uniqueName="22" name="2018" queryTableFieldId="22"/>
-    <tableColumn id="23" xr3:uid="{528EA62E-40BF-413A-AF00-046DA4F1075F}" uniqueName="23" name="2019" queryTableFieldId="23"/>
-    <tableColumn id="24" xr3:uid="{504AD467-A1C1-4D22-ABB8-4E2AF6B72C8E}" uniqueName="24" name="2020" queryTableFieldId="24"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4C4C530F-5AF1-40A2-B93C-A4DA61815D84}" name="Table004__Page_2" displayName="Table004__Page_2" ref="A1:X15" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:X15" xr:uid="{4C4C530F-5AF1-40A2-B93C-A4DA61815D84}"/>
   <tableColumns count="24">
@@ -2585,7 +2537,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BAFAB82C-5719-4DFC-8968-95ED26311BBD}" name="Table003__Page_1" displayName="Table003__Page_1" ref="A1:X14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:X14" xr:uid="{BAFAB82C-5719-4DFC-8968-95ED26311BBD}"/>
   <tableColumns count="24">
@@ -2618,7 +2570,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8C13321C-D1AA-4677-B603-12F1D6254520}" name="Table002__Page_1" displayName="Table002__Page_1" ref="A1:X14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:X14" xr:uid="{8C13321C-D1AA-4677-B603-12F1D6254520}"/>
   <tableColumns count="24">
@@ -2651,7 +2603,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D739C2B-739A-4D21-9207-D679F36719EE}" name="Table001__Page_1" displayName="Table001__Page_1" ref="A1:X14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:X14" xr:uid="{6D739C2B-739A-4D21-9207-D679F36719EE}"/>
   <tableColumns count="24">
@@ -2684,9 +2636,42 @@
 </table>
 </file>
 
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CBA38332-ACA1-448E-A93C-062A64AEA780}" name="Table005__Page_2" displayName="Table005__Page_2" ref="A1:X9" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:X9" xr:uid="{CBA38332-ACA1-448E-A93C-062A64AEA780}"/>
+  <tableColumns count="24">
+    <tableColumn id="1" xr3:uid="{3CA62071-D45F-442C-B6EB-76C18510E821}" uniqueName="1" name="Categoria" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{35684C3E-11B6-4919-8F4B-121668A46372}" uniqueName="2" name="1998" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{D20BC353-3D0B-4F6A-8F86-D0C80F5E9B69}" uniqueName="3" name="1999" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{5561F701-49DF-47D9-A852-B485391EFC63}" uniqueName="4" name="2000" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{981FC1A5-A168-4728-AA41-00817FCA54E5}" uniqueName="5" name="2001" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{DDF9F05F-BA19-471B-BE38-E9DF4453AB8D}" uniqueName="6" name="2002" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{937C2ECD-19FF-4428-989F-0B4B84A6C9AE}" uniqueName="7" name="2003" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{ACD046F1-357A-4CFB-A8F3-453C2273073B}" uniqueName="8" name="2004" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{88C2328C-2E53-4D0A-BD2C-CCC7EF0DE95F}" uniqueName="9" name="2005" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{07FE3E2B-E743-466B-AD30-3EA9B2EB2E1E}" uniqueName="10" name="2006" queryTableFieldId="10"/>
+    <tableColumn id="11" xr3:uid="{8CA9BFC5-A78C-4A74-B57D-79B552B74721}" uniqueName="11" name="2007" queryTableFieldId="11"/>
+    <tableColumn id="12" xr3:uid="{864FB69E-9B40-43D5-A91F-469D19EFB493}" uniqueName="12" name="2008" queryTableFieldId="12"/>
+    <tableColumn id="13" xr3:uid="{D99BE550-C163-45B9-83E9-177FFF2EA5CA}" uniqueName="13" name="2009" queryTableFieldId="13"/>
+    <tableColumn id="14" xr3:uid="{86DEDBB7-6E1E-435A-9890-BE91E5369714}" uniqueName="14" name="2010" queryTableFieldId="14"/>
+    <tableColumn id="15" xr3:uid="{B6F3B6BF-454E-41CA-A757-C35C9198CAA6}" uniqueName="15" name="2011" queryTableFieldId="15"/>
+    <tableColumn id="16" xr3:uid="{35F49D2A-AB75-490D-BEB7-774126D365CE}" uniqueName="16" name="2012" queryTableFieldId="16"/>
+    <tableColumn id="17" xr3:uid="{51CB3798-2D8C-4478-888D-465A761D3478}" uniqueName="17" name="2013" queryTableFieldId="17"/>
+    <tableColumn id="18" xr3:uid="{F2DB0B2E-D408-419E-900B-36A84B917738}" uniqueName="18" name="2014" queryTableFieldId="18"/>
+    <tableColumn id="19" xr3:uid="{5856E27A-82FB-4253-B0A5-80F14AE15180}" uniqueName="19" name="2015" queryTableFieldId="19"/>
+    <tableColumn id="20" xr3:uid="{C0BAB943-924B-4903-9BD9-B222A2EA39B5}" uniqueName="20" name="2016" queryTableFieldId="20"/>
+    <tableColumn id="21" xr3:uid="{975011D4-61BF-4523-AFB7-FF3BC0260FD3}" uniqueName="21" name="2017" queryTableFieldId="21"/>
+    <tableColumn id="22" xr3:uid="{D9CE6FBA-1CD8-48A3-97A0-8262F1F43653}" uniqueName="22" name="2018" queryTableFieldId="22"/>
+    <tableColumn id="23" xr3:uid="{528EA62E-40BF-413A-AF00-046DA4F1075F}" uniqueName="23" name="2019" queryTableFieldId="23"/>
+    <tableColumn id="24" xr3:uid="{504AD467-A1C1-4D22-ABB8-4E2AF6B72C8E}" uniqueName="24" name="2020" queryTableFieldId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B21B0DE1-A9A6-4DB8-AECE-041FC5FB6832}" name="Table001__Page_18" displayName="Table001__Page_18" ref="B1:Y79" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="B1:Y79" xr:uid="{B21B0DE1-A9A6-4DB8-AECE-041FC5FB6832}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B21B0DE1-A9A6-4DB8-AECE-041FC5FB6832}" name="Table001__Page_18" displayName="Table001__Page_18" ref="B1:Y61" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="B1:Y61" xr:uid="{B21B0DE1-A9A6-4DB8-AECE-041FC5FB6832}"/>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{481209B0-773F-4231-B455-6E958570795C}" uniqueName="1" name="Mes" queryTableFieldId="1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{A00D7056-CC53-4111-8193-B274A626AA73}" uniqueName="2" name="1998" queryTableFieldId="2"/>
@@ -5775,694 +5760,6 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814B0AC5-89CD-4BE7-95C1-83EE4E287AB6}">
-  <dimension ref="A1:X9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="24" width="7.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M1" t="s">
-        <v>102</v>
-      </c>
-      <c r="N1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O1" t="s">
-        <v>104</v>
-      </c>
-      <c r="P1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>106</v>
-      </c>
-      <c r="R1" t="s">
-        <v>107</v>
-      </c>
-      <c r="S1" t="s">
-        <v>108</v>
-      </c>
-      <c r="T1" t="s">
-        <v>109</v>
-      </c>
-      <c r="U1" t="s">
-        <v>110</v>
-      </c>
-      <c r="V1" t="s">
-        <v>111</v>
-      </c>
-      <c r="W1" t="s">
-        <v>112</v>
-      </c>
-      <c r="X1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2">
-        <v>161</v>
-      </c>
-      <c r="C2">
-        <v>162</v>
-      </c>
-      <c r="D2">
-        <v>117</v>
-      </c>
-      <c r="E2">
-        <v>127</v>
-      </c>
-      <c r="F2">
-        <v>71</v>
-      </c>
-      <c r="G2">
-        <v>32</v>
-      </c>
-      <c r="H2">
-        <v>43</v>
-      </c>
-      <c r="I2">
-        <v>35</v>
-      </c>
-      <c r="J2">
-        <v>38</v>
-      </c>
-      <c r="K2">
-        <v>76</v>
-      </c>
-      <c r="L2">
-        <v>137</v>
-      </c>
-      <c r="M2">
-        <v>168</v>
-      </c>
-      <c r="N2">
-        <v>199</v>
-      </c>
-      <c r="O2">
-        <v>201</v>
-      </c>
-      <c r="P2">
-        <v>161</v>
-      </c>
-      <c r="Q2">
-        <v>212</v>
-      </c>
-      <c r="R2">
-        <v>219</v>
-      </c>
-      <c r="S2">
-        <v>205</v>
-      </c>
-      <c r="T2">
-        <v>206</v>
-      </c>
-      <c r="U2">
-        <v>226</v>
-      </c>
-      <c r="V2">
-        <v>224</v>
-      </c>
-      <c r="W2">
-        <v>223</v>
-      </c>
-      <c r="X2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3">
-        <v>148733</v>
-      </c>
-      <c r="C3">
-        <v>178586</v>
-      </c>
-      <c r="D3">
-        <v>147511</v>
-      </c>
-      <c r="E3">
-        <v>168855</v>
-      </c>
-      <c r="F3">
-        <v>85880</v>
-      </c>
-      <c r="G3">
-        <v>31063</v>
-      </c>
-      <c r="H3">
-        <v>38946</v>
-      </c>
-      <c r="I3">
-        <v>41542</v>
-      </c>
-      <c r="J3">
-        <v>42024</v>
-      </c>
-      <c r="K3">
-        <v>108892</v>
-      </c>
-      <c r="L3">
-        <v>208161</v>
-      </c>
-      <c r="M3">
-        <v>282705</v>
-      </c>
-      <c r="N3">
-        <v>319258</v>
-      </c>
-      <c r="O3">
-        <v>339785</v>
-      </c>
-      <c r="P3">
-        <v>274352</v>
-      </c>
-      <c r="Q3">
-        <v>356350</v>
-      </c>
-      <c r="R3">
-        <v>366096</v>
-      </c>
-      <c r="S3">
-        <v>311888</v>
-      </c>
-      <c r="T3">
-        <v>344214</v>
-      </c>
-      <c r="U3">
-        <v>405302</v>
-      </c>
-      <c r="V3">
-        <v>447942</v>
-      </c>
-      <c r="W3">
-        <v>436801</v>
-      </c>
-      <c r="X3">
-        <v>150293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4">
-        <v>148733</v>
-      </c>
-      <c r="C4">
-        <v>178586</v>
-      </c>
-      <c r="D4">
-        <v>147511</v>
-      </c>
-      <c r="E4">
-        <v>168855</v>
-      </c>
-      <c r="F4">
-        <v>85880</v>
-      </c>
-      <c r="G4">
-        <v>31063</v>
-      </c>
-      <c r="H4">
-        <v>38946</v>
-      </c>
-      <c r="I4">
-        <v>41542</v>
-      </c>
-      <c r="J4">
-        <v>42024</v>
-      </c>
-      <c r="K4">
-        <v>108892</v>
-      </c>
-      <c r="L4">
-        <v>206691</v>
-      </c>
-      <c r="M4">
-        <v>270257</v>
-      </c>
-      <c r="N4">
-        <v>286420</v>
-      </c>
-      <c r="O4">
-        <v>305932</v>
-      </c>
-      <c r="P4">
-        <v>251531</v>
-      </c>
-      <c r="Q4">
-        <v>306471</v>
-      </c>
-      <c r="R4">
-        <v>310957</v>
-      </c>
-      <c r="S4">
-        <v>263816</v>
-      </c>
-      <c r="T4">
-        <v>304398</v>
-      </c>
-      <c r="U4">
-        <v>338172</v>
-      </c>
-      <c r="V4">
-        <v>375387</v>
-      </c>
-      <c r="W4">
-        <v>358083</v>
-      </c>
-      <c r="X4">
-        <v>134354</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>1470</v>
-      </c>
-      <c r="M5">
-        <v>12448</v>
-      </c>
-      <c r="N5">
-        <v>32946</v>
-      </c>
-      <c r="O5">
-        <v>33853</v>
-      </c>
-      <c r="P5">
-        <v>22821</v>
-      </c>
-      <c r="Q5">
-        <v>49879</v>
-      </c>
-      <c r="R5">
-        <v>55139</v>
-      </c>
-      <c r="S5">
-        <v>48072</v>
-      </c>
-      <c r="T5">
-        <v>39816</v>
-      </c>
-      <c r="U5">
-        <v>67130</v>
-      </c>
-      <c r="V5">
-        <v>72555</v>
-      </c>
-      <c r="W5">
-        <v>78718</v>
-      </c>
-      <c r="X5">
-        <v>15939</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6">
-        <v>76343</v>
-      </c>
-      <c r="C6">
-        <v>86616</v>
-      </c>
-      <c r="D6">
-        <v>73874</v>
-      </c>
-      <c r="E6">
-        <v>80391</v>
-      </c>
-      <c r="F6">
-        <v>39299</v>
-      </c>
-      <c r="G6">
-        <v>14335</v>
-      </c>
-      <c r="H6">
-        <v>18312</v>
-      </c>
-      <c r="I6">
-        <v>17993</v>
-      </c>
-      <c r="J6">
-        <v>18626</v>
-      </c>
-      <c r="K6">
-        <v>49775</v>
-      </c>
-      <c r="L6">
-        <v>95514</v>
-      </c>
-      <c r="M6">
-        <v>120420</v>
-      </c>
-      <c r="N6">
-        <v>133183</v>
-      </c>
-      <c r="O6">
-        <v>133651</v>
-      </c>
-      <c r="P6">
-        <v>112989</v>
-      </c>
-      <c r="Q6">
-        <v>155465</v>
-      </c>
-      <c r="R6">
-        <v>149256</v>
-      </c>
-      <c r="S6">
-        <v>132159</v>
-      </c>
-      <c r="T6">
-        <v>147877</v>
-      </c>
-      <c r="U6">
-        <v>167958</v>
-      </c>
-      <c r="V6">
-        <v>179908</v>
-      </c>
-      <c r="W6">
-        <v>175513</v>
-      </c>
-      <c r="X6">
-        <v>60459</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7">
-        <v>225076</v>
-      </c>
-      <c r="C7">
-        <v>265202</v>
-      </c>
-      <c r="D7">
-        <v>221385</v>
-      </c>
-      <c r="E7">
-        <v>249246</v>
-      </c>
-      <c r="F7">
-        <v>125179</v>
-      </c>
-      <c r="G7">
-        <v>45398</v>
-      </c>
-      <c r="H7">
-        <v>57258</v>
-      </c>
-      <c r="I7">
-        <v>59535</v>
-      </c>
-      <c r="J7">
-        <v>60650</v>
-      </c>
-      <c r="K7">
-        <v>158667</v>
-      </c>
-      <c r="L7">
-        <v>303675</v>
-      </c>
-      <c r="M7">
-        <v>403125</v>
-      </c>
-      <c r="N7">
-        <v>452441</v>
-      </c>
-      <c r="O7">
-        <v>473436</v>
-      </c>
-      <c r="P7">
-        <v>387341</v>
-      </c>
-      <c r="Q7">
-        <v>511815</v>
-      </c>
-      <c r="R7">
-        <v>515352</v>
-      </c>
-      <c r="S7">
-        <v>444047</v>
-      </c>
-      <c r="T7">
-        <v>492091</v>
-      </c>
-      <c r="U7">
-        <v>573260</v>
-      </c>
-      <c r="V7">
-        <v>627850</v>
-      </c>
-      <c r="W7">
-        <v>612314</v>
-      </c>
-      <c r="X7">
-        <v>210752</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8">
-        <v>924</v>
-      </c>
-      <c r="C8">
-        <v>1102</v>
-      </c>
-      <c r="D8">
-        <v>1261</v>
-      </c>
-      <c r="E8">
-        <v>1330</v>
-      </c>
-      <c r="F8">
-        <v>1210</v>
-      </c>
-      <c r="G8">
-        <v>971</v>
-      </c>
-      <c r="H8">
-        <v>906</v>
-      </c>
-      <c r="I8">
-        <v>1187</v>
-      </c>
-      <c r="J8">
-        <v>1106</v>
-      </c>
-      <c r="K8">
-        <v>1433</v>
-      </c>
-      <c r="L8">
-        <v>1519</v>
-      </c>
-      <c r="M8">
-        <v>1683</v>
-      </c>
-      <c r="N8">
-        <v>1604</v>
-      </c>
-      <c r="O8">
-        <v>1690</v>
-      </c>
-      <c r="P8">
-        <v>1704</v>
-      </c>
-      <c r="Q8">
-        <v>1681</v>
-      </c>
-      <c r="R8">
-        <v>1672</v>
-      </c>
-      <c r="S8">
-        <v>1521</v>
-      </c>
-      <c r="T8">
-        <v>1671</v>
-      </c>
-      <c r="U8">
-        <v>1793</v>
-      </c>
-      <c r="V8">
-        <v>2000</v>
-      </c>
-      <c r="W8">
-        <v>1959</v>
-      </c>
-      <c r="X8">
-        <v>2059</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9">
-        <v>0.51</v>
-      </c>
-      <c r="C9">
-        <v>0.49</v>
-      </c>
-      <c r="D9">
-        <v>0.5</v>
-      </c>
-      <c r="E9">
-        <v>0.48</v>
-      </c>
-      <c r="F9">
-        <v>0.46</v>
-      </c>
-      <c r="G9">
-        <v>0.46</v>
-      </c>
-      <c r="H9">
-        <v>0.47</v>
-      </c>
-      <c r="I9">
-        <v>0.43</v>
-      </c>
-      <c r="J9">
-        <v>0.44</v>
-      </c>
-      <c r="K9">
-        <v>0.46</v>
-      </c>
-      <c r="L9">
-        <v>0.46</v>
-      </c>
-      <c r="M9">
-        <v>0.43</v>
-      </c>
-      <c r="N9">
-        <v>0.42</v>
-      </c>
-      <c r="O9">
-        <v>0.39</v>
-      </c>
-      <c r="P9">
-        <v>0.41</v>
-      </c>
-      <c r="Q9">
-        <v>0.44</v>
-      </c>
-      <c r="R9">
-        <v>0.41</v>
-      </c>
-      <c r="S9">
-        <v>0.42</v>
-      </c>
-      <c r="T9">
-        <v>0.43</v>
-      </c>
-      <c r="U9">
-        <v>0.41</v>
-      </c>
-      <c r="V9">
-        <v>0.4</v>
-      </c>
-      <c r="W9">
-        <v>0.4</v>
-      </c>
-      <c r="X9">
-        <v>0.4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC3F71C-3094-4AEE-82BD-D1AC031970D4}">
   <dimension ref="A1:X15"/>
   <sheetViews>
@@ -7076,7 +6373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CF2C05-C8B6-4BD1-B161-A7F486258C34}">
   <dimension ref="A1:X14"/>
   <sheetViews>
@@ -8107,7 +7404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C37DA2-56CE-4973-8EDF-11D32896C16C}">
   <dimension ref="A1:X14"/>
   <sheetViews>
@@ -9159,7 +8456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DAA2B53-5102-4F13-9956-7F2107DFB6EC}">
   <dimension ref="A1:X14"/>
   <sheetViews>
@@ -10190,19 +9487,707 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814B0AC5-89CD-4BE7-95C1-83EE4E287AB6}">
+  <dimension ref="A1:X9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="24" width="7.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R1" t="s">
+        <v>107</v>
+      </c>
+      <c r="S1" t="s">
+        <v>108</v>
+      </c>
+      <c r="T1" t="s">
+        <v>109</v>
+      </c>
+      <c r="U1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V1" t="s">
+        <v>111</v>
+      </c>
+      <c r="W1" t="s">
+        <v>112</v>
+      </c>
+      <c r="X1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2">
+        <v>161</v>
+      </c>
+      <c r="C2">
+        <v>162</v>
+      </c>
+      <c r="D2">
+        <v>117</v>
+      </c>
+      <c r="E2">
+        <v>127</v>
+      </c>
+      <c r="F2">
+        <v>71</v>
+      </c>
+      <c r="G2">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>43</v>
+      </c>
+      <c r="I2">
+        <v>35</v>
+      </c>
+      <c r="J2">
+        <v>38</v>
+      </c>
+      <c r="K2">
+        <v>76</v>
+      </c>
+      <c r="L2">
+        <v>137</v>
+      </c>
+      <c r="M2">
+        <v>168</v>
+      </c>
+      <c r="N2">
+        <v>199</v>
+      </c>
+      <c r="O2">
+        <v>201</v>
+      </c>
+      <c r="P2">
+        <v>161</v>
+      </c>
+      <c r="Q2">
+        <v>212</v>
+      </c>
+      <c r="R2">
+        <v>219</v>
+      </c>
+      <c r="S2">
+        <v>205</v>
+      </c>
+      <c r="T2">
+        <v>206</v>
+      </c>
+      <c r="U2">
+        <v>226</v>
+      </c>
+      <c r="V2">
+        <v>224</v>
+      </c>
+      <c r="W2">
+        <v>223</v>
+      </c>
+      <c r="X2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3">
+        <v>148733</v>
+      </c>
+      <c r="C3">
+        <v>178586</v>
+      </c>
+      <c r="D3">
+        <v>147511</v>
+      </c>
+      <c r="E3">
+        <v>168855</v>
+      </c>
+      <c r="F3">
+        <v>85880</v>
+      </c>
+      <c r="G3">
+        <v>31063</v>
+      </c>
+      <c r="H3">
+        <v>38946</v>
+      </c>
+      <c r="I3">
+        <v>41542</v>
+      </c>
+      <c r="J3">
+        <v>42024</v>
+      </c>
+      <c r="K3">
+        <v>108892</v>
+      </c>
+      <c r="L3">
+        <v>208161</v>
+      </c>
+      <c r="M3">
+        <v>282705</v>
+      </c>
+      <c r="N3">
+        <v>319258</v>
+      </c>
+      <c r="O3">
+        <v>339785</v>
+      </c>
+      <c r="P3">
+        <v>274352</v>
+      </c>
+      <c r="Q3">
+        <v>356350</v>
+      </c>
+      <c r="R3">
+        <v>366096</v>
+      </c>
+      <c r="S3">
+        <v>311888</v>
+      </c>
+      <c r="T3">
+        <v>344214</v>
+      </c>
+      <c r="U3">
+        <v>405302</v>
+      </c>
+      <c r="V3">
+        <v>447942</v>
+      </c>
+      <c r="W3">
+        <v>436801</v>
+      </c>
+      <c r="X3">
+        <v>150293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4">
+        <v>148733</v>
+      </c>
+      <c r="C4">
+        <v>178586</v>
+      </c>
+      <c r="D4">
+        <v>147511</v>
+      </c>
+      <c r="E4">
+        <v>168855</v>
+      </c>
+      <c r="F4">
+        <v>85880</v>
+      </c>
+      <c r="G4">
+        <v>31063</v>
+      </c>
+      <c r="H4">
+        <v>38946</v>
+      </c>
+      <c r="I4">
+        <v>41542</v>
+      </c>
+      <c r="J4">
+        <v>42024</v>
+      </c>
+      <c r="K4">
+        <v>108892</v>
+      </c>
+      <c r="L4">
+        <v>206691</v>
+      </c>
+      <c r="M4">
+        <v>270257</v>
+      </c>
+      <c r="N4">
+        <v>286420</v>
+      </c>
+      <c r="O4">
+        <v>305932</v>
+      </c>
+      <c r="P4">
+        <v>251531</v>
+      </c>
+      <c r="Q4">
+        <v>306471</v>
+      </c>
+      <c r="R4">
+        <v>310957</v>
+      </c>
+      <c r="S4">
+        <v>263816</v>
+      </c>
+      <c r="T4">
+        <v>304398</v>
+      </c>
+      <c r="U4">
+        <v>338172</v>
+      </c>
+      <c r="V4">
+        <v>375387</v>
+      </c>
+      <c r="W4">
+        <v>358083</v>
+      </c>
+      <c r="X4">
+        <v>134354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1470</v>
+      </c>
+      <c r="M5">
+        <v>12448</v>
+      </c>
+      <c r="N5">
+        <v>32946</v>
+      </c>
+      <c r="O5">
+        <v>33853</v>
+      </c>
+      <c r="P5">
+        <v>22821</v>
+      </c>
+      <c r="Q5">
+        <v>49879</v>
+      </c>
+      <c r="R5">
+        <v>55139</v>
+      </c>
+      <c r="S5">
+        <v>48072</v>
+      </c>
+      <c r="T5">
+        <v>39816</v>
+      </c>
+      <c r="U5">
+        <v>67130</v>
+      </c>
+      <c r="V5">
+        <v>72555</v>
+      </c>
+      <c r="W5">
+        <v>78718</v>
+      </c>
+      <c r="X5">
+        <v>15939</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6">
+        <v>76343</v>
+      </c>
+      <c r="C6">
+        <v>86616</v>
+      </c>
+      <c r="D6">
+        <v>73874</v>
+      </c>
+      <c r="E6">
+        <v>80391</v>
+      </c>
+      <c r="F6">
+        <v>39299</v>
+      </c>
+      <c r="G6">
+        <v>14335</v>
+      </c>
+      <c r="H6">
+        <v>18312</v>
+      </c>
+      <c r="I6">
+        <v>17993</v>
+      </c>
+      <c r="J6">
+        <v>18626</v>
+      </c>
+      <c r="K6">
+        <v>49775</v>
+      </c>
+      <c r="L6">
+        <v>95514</v>
+      </c>
+      <c r="M6">
+        <v>120420</v>
+      </c>
+      <c r="N6">
+        <v>133183</v>
+      </c>
+      <c r="O6">
+        <v>133651</v>
+      </c>
+      <c r="P6">
+        <v>112989</v>
+      </c>
+      <c r="Q6">
+        <v>155465</v>
+      </c>
+      <c r="R6">
+        <v>149256</v>
+      </c>
+      <c r="S6">
+        <v>132159</v>
+      </c>
+      <c r="T6">
+        <v>147877</v>
+      </c>
+      <c r="U6">
+        <v>167958</v>
+      </c>
+      <c r="V6">
+        <v>179908</v>
+      </c>
+      <c r="W6">
+        <v>175513</v>
+      </c>
+      <c r="X6">
+        <v>60459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7">
+        <v>225076</v>
+      </c>
+      <c r="C7">
+        <v>265202</v>
+      </c>
+      <c r="D7">
+        <v>221385</v>
+      </c>
+      <c r="E7">
+        <v>249246</v>
+      </c>
+      <c r="F7">
+        <v>125179</v>
+      </c>
+      <c r="G7">
+        <v>45398</v>
+      </c>
+      <c r="H7">
+        <v>57258</v>
+      </c>
+      <c r="I7">
+        <v>59535</v>
+      </c>
+      <c r="J7">
+        <v>60650</v>
+      </c>
+      <c r="K7">
+        <v>158667</v>
+      </c>
+      <c r="L7">
+        <v>303675</v>
+      </c>
+      <c r="M7">
+        <v>403125</v>
+      </c>
+      <c r="N7">
+        <v>452441</v>
+      </c>
+      <c r="O7">
+        <v>473436</v>
+      </c>
+      <c r="P7">
+        <v>387341</v>
+      </c>
+      <c r="Q7">
+        <v>511815</v>
+      </c>
+      <c r="R7">
+        <v>515352</v>
+      </c>
+      <c r="S7">
+        <v>444047</v>
+      </c>
+      <c r="T7">
+        <v>492091</v>
+      </c>
+      <c r="U7">
+        <v>573260</v>
+      </c>
+      <c r="V7">
+        <v>627850</v>
+      </c>
+      <c r="W7">
+        <v>612314</v>
+      </c>
+      <c r="X7">
+        <v>210752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8">
+        <v>924</v>
+      </c>
+      <c r="C8">
+        <v>1102</v>
+      </c>
+      <c r="D8">
+        <v>1261</v>
+      </c>
+      <c r="E8">
+        <v>1330</v>
+      </c>
+      <c r="F8">
+        <v>1210</v>
+      </c>
+      <c r="G8">
+        <v>971</v>
+      </c>
+      <c r="H8">
+        <v>906</v>
+      </c>
+      <c r="I8">
+        <v>1187</v>
+      </c>
+      <c r="J8">
+        <v>1106</v>
+      </c>
+      <c r="K8">
+        <v>1433</v>
+      </c>
+      <c r="L8">
+        <v>1519</v>
+      </c>
+      <c r="M8">
+        <v>1683</v>
+      </c>
+      <c r="N8">
+        <v>1604</v>
+      </c>
+      <c r="O8">
+        <v>1690</v>
+      </c>
+      <c r="P8">
+        <v>1704</v>
+      </c>
+      <c r="Q8">
+        <v>1681</v>
+      </c>
+      <c r="R8">
+        <v>1672</v>
+      </c>
+      <c r="S8">
+        <v>1521</v>
+      </c>
+      <c r="T8">
+        <v>1671</v>
+      </c>
+      <c r="U8">
+        <v>1793</v>
+      </c>
+      <c r="V8">
+        <v>2000</v>
+      </c>
+      <c r="W8">
+        <v>1959</v>
+      </c>
+      <c r="X8">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9">
+        <v>0.51</v>
+      </c>
+      <c r="C9">
+        <v>0.49</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>0.48</v>
+      </c>
+      <c r="F9">
+        <v>0.46</v>
+      </c>
+      <c r="G9">
+        <v>0.46</v>
+      </c>
+      <c r="H9">
+        <v>0.47</v>
+      </c>
+      <c r="I9">
+        <v>0.43</v>
+      </c>
+      <c r="J9">
+        <v>0.44</v>
+      </c>
+      <c r="K9">
+        <v>0.46</v>
+      </c>
+      <c r="L9">
+        <v>0.46</v>
+      </c>
+      <c r="M9">
+        <v>0.43</v>
+      </c>
+      <c r="N9">
+        <v>0.42</v>
+      </c>
+      <c r="O9">
+        <v>0.39</v>
+      </c>
+      <c r="P9">
+        <v>0.41</v>
+      </c>
+      <c r="Q9">
+        <v>0.44</v>
+      </c>
+      <c r="R9">
+        <v>0.41</v>
+      </c>
+      <c r="S9">
+        <v>0.42</v>
+      </c>
+      <c r="T9">
+        <v>0.43</v>
+      </c>
+      <c r="U9">
+        <v>0.41</v>
+      </c>
+      <c r="V9">
+        <v>0.4</v>
+      </c>
+      <c r="W9">
+        <v>0.4</v>
+      </c>
+      <c r="X9">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BD4764-BD1C-4AC7-A8C3-AF1408A3E3DB}">
-  <dimension ref="A1:Y79"/>
+  <dimension ref="A1:Y61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -10279,7 +10264,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>114</v>
@@ -10356,7 +10341,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>115</v>
@@ -10433,7 +10418,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>116</v>
@@ -10510,7 +10495,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>117</v>
@@ -10581,10 +10566,13 @@
       <c r="X5">
         <v>23</v>
       </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>118</v>
@@ -10655,10 +10643,13 @@
       <c r="X6">
         <v>6</v>
       </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B7" s="29" t="s">
         <v>119</v>
@@ -10729,10 +10720,13 @@
       <c r="X7">
         <v>6</v>
       </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>120</v>
@@ -10803,10 +10797,13 @@
       <c r="X8">
         <v>4</v>
       </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>121</v>
@@ -10877,10 +10874,13 @@
       <c r="X9">
         <v>5</v>
       </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>122</v>
@@ -10951,10 +10951,13 @@
       <c r="X10">
         <v>5</v>
       </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B11" s="29" t="s">
         <v>123</v>
@@ -11025,10 +11028,13 @@
       <c r="X11">
         <v>22</v>
       </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>124</v>
@@ -11099,10 +11105,13 @@
       <c r="X12">
         <v>33</v>
       </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>125</v>
@@ -11173,387 +11182,390 @@
       <c r="X13">
         <v>31</v>
       </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C14">
-        <v>161</v>
+        <v>23694</v>
       </c>
       <c r="D14">
-        <v>162</v>
+        <v>26152</v>
       </c>
       <c r="E14">
-        <v>117</v>
+        <v>19077</v>
       </c>
       <c r="F14">
-        <v>127</v>
+        <v>24879</v>
       </c>
       <c r="G14">
-        <v>71</v>
+        <v>26881</v>
       </c>
       <c r="H14">
-        <v>32</v>
+        <v>4786</v>
       </c>
       <c r="I14">
-        <v>43</v>
+        <v>6195</v>
       </c>
       <c r="J14">
-        <v>35</v>
+        <v>11407</v>
       </c>
       <c r="K14">
-        <v>38</v>
+        <v>6967</v>
       </c>
       <c r="L14">
-        <v>76</v>
+        <v>6282</v>
       </c>
       <c r="M14">
-        <v>137</v>
+        <v>26653</v>
       </c>
       <c r="N14">
-        <v>168</v>
+        <v>38420</v>
       </c>
       <c r="O14">
-        <v>199</v>
+        <v>51696</v>
       </c>
       <c r="P14">
-        <v>201</v>
+        <v>63299</v>
       </c>
       <c r="Q14">
-        <v>161</v>
+        <v>51854</v>
       </c>
       <c r="R14">
-        <v>212</v>
+        <v>47995</v>
       </c>
       <c r="S14">
-        <v>219</v>
+        <v>56082</v>
       </c>
       <c r="T14">
-        <v>205</v>
+        <v>43355</v>
       </c>
       <c r="U14">
-        <v>206</v>
+        <v>54755</v>
       </c>
       <c r="V14">
-        <v>226</v>
+        <v>66998</v>
       </c>
       <c r="W14">
-        <v>224</v>
+        <v>62275</v>
       </c>
       <c r="X14">
-        <v>223</v>
+        <v>59445</v>
       </c>
       <c r="Y14">
-        <v>73</v>
+        <v>73906</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C15">
-        <v>23694</v>
+        <v>11343</v>
       </c>
       <c r="D15">
-        <v>26152</v>
+        <v>22579</v>
       </c>
       <c r="E15">
-        <v>19077</v>
+        <v>21013</v>
       </c>
       <c r="F15">
-        <v>24879</v>
+        <v>19874</v>
       </c>
       <c r="G15">
-        <v>26881</v>
+        <v>17936</v>
       </c>
       <c r="H15">
-        <v>4786</v>
+        <v>4421</v>
       </c>
       <c r="I15">
-        <v>6195</v>
+        <v>6866</v>
       </c>
       <c r="J15">
-        <v>11407</v>
+        <v>4020</v>
       </c>
       <c r="K15">
-        <v>6967</v>
+        <v>5759</v>
       </c>
       <c r="L15">
-        <v>6282</v>
+        <v>11078</v>
       </c>
       <c r="M15">
-        <v>26653</v>
+        <v>28710</v>
       </c>
       <c r="N15">
-        <v>38420</v>
+        <v>41130</v>
       </c>
       <c r="O15">
-        <v>51696</v>
+        <v>38266</v>
       </c>
       <c r="P15">
-        <v>63299</v>
+        <v>39031</v>
       </c>
       <c r="Q15">
-        <v>51854</v>
+        <v>36508</v>
       </c>
       <c r="R15">
-        <v>47995</v>
+        <v>29514</v>
       </c>
       <c r="S15">
-        <v>56082</v>
+        <v>41427</v>
       </c>
       <c r="T15">
-        <v>43355</v>
+        <v>41287</v>
       </c>
       <c r="U15">
-        <v>54755</v>
+        <v>38993</v>
       </c>
       <c r="V15">
-        <v>66998</v>
+        <v>38765</v>
       </c>
       <c r="W15">
-        <v>62275</v>
+        <v>56397</v>
       </c>
       <c r="X15">
-        <v>59445</v>
+        <v>56362</v>
       </c>
       <c r="Y15">
-        <v>73906</v>
+        <v>56737</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C16">
-        <v>11343</v>
+        <v>21769</v>
       </c>
       <c r="D16">
-        <v>22579</v>
+        <v>28269</v>
       </c>
       <c r="E16">
-        <v>21013</v>
+        <v>25307</v>
       </c>
       <c r="F16">
-        <v>19874</v>
+        <v>24111</v>
       </c>
       <c r="G16">
-        <v>17936</v>
+        <v>19724</v>
       </c>
       <c r="H16">
-        <v>4421</v>
+        <v>5115</v>
       </c>
       <c r="I16">
-        <v>6866</v>
+        <v>4848</v>
       </c>
       <c r="J16">
-        <v>4020</v>
+        <v>7932</v>
       </c>
       <c r="K16">
-        <v>5759</v>
+        <v>6380</v>
       </c>
       <c r="L16">
-        <v>11078</v>
+        <v>5192</v>
       </c>
       <c r="M16">
-        <v>28710</v>
+        <v>25220</v>
       </c>
       <c r="N16">
-        <v>41130</v>
+        <v>39274</v>
       </c>
       <c r="O16">
-        <v>38266</v>
+        <v>42579</v>
       </c>
       <c r="P16">
-        <v>39031</v>
+        <v>49303</v>
       </c>
       <c r="Q16">
-        <v>36508</v>
+        <v>35475</v>
       </c>
       <c r="R16">
-        <v>29514</v>
+        <v>48759</v>
       </c>
       <c r="S16">
-        <v>41427</v>
+        <v>49383</v>
       </c>
       <c r="T16">
-        <v>41287</v>
+        <v>33044</v>
       </c>
       <c r="U16">
-        <v>38993</v>
+        <v>48269</v>
       </c>
       <c r="V16">
-        <v>38765</v>
+        <v>47966</v>
       </c>
       <c r="W16">
-        <v>56397</v>
+        <v>58808</v>
       </c>
       <c r="X16">
-        <v>56362</v>
+        <v>57234</v>
       </c>
       <c r="Y16">
-        <v>56737</v>
+        <v>19650</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C17">
-        <v>21769</v>
+        <v>23509</v>
       </c>
       <c r="D17">
-        <v>28269</v>
+        <v>23172</v>
       </c>
       <c r="E17">
-        <v>25307</v>
+        <v>19521</v>
       </c>
       <c r="F17">
-        <v>24111</v>
+        <v>34391</v>
       </c>
       <c r="G17">
-        <v>19724</v>
+        <v>7041</v>
       </c>
       <c r="H17">
-        <v>5115</v>
+        <v>1399</v>
       </c>
       <c r="I17">
-        <v>4848</v>
+        <v>9167</v>
       </c>
       <c r="J17">
-        <v>7932</v>
+        <v>5604</v>
       </c>
       <c r="K17">
-        <v>6380</v>
+        <v>6457</v>
       </c>
       <c r="L17">
-        <v>5192</v>
+        <v>12470</v>
       </c>
       <c r="M17">
-        <v>25220</v>
+        <v>37792</v>
       </c>
       <c r="N17">
-        <v>39274</v>
+        <v>43148</v>
       </c>
       <c r="O17">
-        <v>42579</v>
+        <v>41406</v>
       </c>
       <c r="P17">
-        <v>49303</v>
+        <v>49810</v>
       </c>
       <c r="Q17">
-        <v>35475</v>
+        <v>31270</v>
       </c>
       <c r="R17">
-        <v>48759</v>
+        <v>44731</v>
       </c>
       <c r="S17">
-        <v>49383</v>
+        <v>42309</v>
       </c>
       <c r="T17">
-        <v>33044</v>
+        <v>42806</v>
       </c>
       <c r="U17">
-        <v>48269</v>
+        <v>38253</v>
       </c>
       <c r="V17">
-        <v>47966</v>
+        <v>54925</v>
       </c>
       <c r="W17">
-        <v>58808</v>
+        <v>43717</v>
       </c>
       <c r="X17">
-        <v>57234</v>
+        <v>44844</v>
       </c>
       <c r="Y17">
-        <v>19650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C18">
-        <v>23509</v>
+        <v>1994</v>
       </c>
       <c r="D18">
-        <v>23172</v>
+        <v>2038</v>
       </c>
       <c r="E18">
-        <v>19521</v>
+        <v>2018</v>
       </c>
       <c r="F18">
-        <v>34391</v>
+        <v>7082</v>
       </c>
       <c r="G18">
-        <v>7041</v>
+        <v>1328</v>
       </c>
       <c r="H18">
-        <v>1399</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>9167</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>5604</v>
+        <v>1701</v>
       </c>
       <c r="K18">
-        <v>6457</v>
+        <v>1365</v>
       </c>
       <c r="L18">
-        <v>12470</v>
+        <v>1329</v>
       </c>
       <c r="M18">
-        <v>37792</v>
+        <v>1046</v>
       </c>
       <c r="N18">
-        <v>43148</v>
+        <v>1240</v>
       </c>
       <c r="O18">
-        <v>41406</v>
+        <v>11486</v>
       </c>
       <c r="P18">
-        <v>49810</v>
+        <v>14392</v>
       </c>
       <c r="Q18">
-        <v>31270</v>
+        <v>6275</v>
       </c>
       <c r="R18">
-        <v>44731</v>
+        <v>13783</v>
       </c>
       <c r="S18">
-        <v>42309</v>
+        <v>23472</v>
       </c>
       <c r="T18">
-        <v>42806</v>
+        <v>20420</v>
       </c>
       <c r="U18">
-        <v>38253</v>
+        <v>13856</v>
       </c>
       <c r="V18">
-        <v>54925</v>
+        <v>13133</v>
       </c>
       <c r="W18">
-        <v>43717</v>
+        <v>13188</v>
       </c>
       <c r="X18">
-        <v>44844</v>
+        <v>10855</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -11561,25 +11573,22 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C19">
-        <v>1994</v>
-      </c>
-      <c r="D19">
-        <v>2038</v>
+        <v>2851</v>
       </c>
       <c r="E19">
-        <v>2018</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>7082</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>1328</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -11588,49 +11597,49 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1701</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1365</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1329</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1046</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1240</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>11486</v>
+        <v>3730</v>
       </c>
       <c r="P19">
-        <v>14392</v>
+        <v>2421</v>
       </c>
       <c r="Q19">
-        <v>6275</v>
+        <v>1194</v>
       </c>
       <c r="R19">
-        <v>13783</v>
+        <v>8561</v>
       </c>
       <c r="S19">
-        <v>23472</v>
+        <v>590</v>
       </c>
       <c r="T19">
-        <v>20420</v>
+        <v>1239</v>
       </c>
       <c r="U19">
-        <v>13856</v>
+        <v>641</v>
       </c>
       <c r="V19">
-        <v>13133</v>
+        <v>8030</v>
       </c>
       <c r="W19">
-        <v>13188</v>
+        <v>14210</v>
       </c>
       <c r="X19">
-        <v>10855</v>
+        <v>13599</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -11638,13 +11647,13 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C20">
-        <v>2851</v>
+        <v>2571</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -11662,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1530</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -11677,34 +11686,34 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3730</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>2421</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1194</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>8561</v>
+        <v>8696</v>
       </c>
       <c r="S20">
-        <v>590</v>
+        <v>7373</v>
       </c>
       <c r="T20">
-        <v>1239</v>
+        <v>665</v>
       </c>
       <c r="U20">
-        <v>641</v>
+        <v>1846</v>
       </c>
       <c r="V20">
-        <v>8030</v>
+        <v>8435</v>
       </c>
       <c r="W20">
-        <v>14210</v>
+        <v>12002</v>
       </c>
       <c r="X20">
-        <v>13599</v>
+        <v>10123</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -11712,13 +11721,16 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C21">
-        <v>2571</v>
+        <v>2543</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -11736,19 +11748,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1530</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2532</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1931</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -11757,28 +11769,28 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="R21">
-        <v>8696</v>
+        <v>10109</v>
       </c>
       <c r="S21">
-        <v>7373</v>
+        <v>15046</v>
       </c>
       <c r="T21">
-        <v>665</v>
+        <v>1904</v>
       </c>
       <c r="U21">
-        <v>1846</v>
+        <v>1802</v>
       </c>
       <c r="V21">
-        <v>8435</v>
+        <v>9109</v>
       </c>
       <c r="W21">
-        <v>12002</v>
+        <v>10872</v>
       </c>
       <c r="X21">
-        <v>10123</v>
+        <v>12424</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -11786,13 +11798,13 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C22">
-        <v>2543</v>
+        <v>2358</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -11810,52 +11822,52 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>817</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="L22">
-        <v>999</v>
+        <v>1945</v>
       </c>
       <c r="M22">
-        <v>2532</v>
+        <v>1979</v>
       </c>
       <c r="N22">
-        <v>1931</v>
+        <v>1913</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>2138</v>
       </c>
       <c r="Q22">
-        <v>64</v>
+        <v>1979</v>
       </c>
       <c r="R22">
-        <v>10109</v>
+        <v>13059</v>
       </c>
       <c r="S22">
-        <v>15046</v>
+        <v>13601</v>
       </c>
       <c r="T22">
-        <v>1904</v>
+        <v>12735</v>
       </c>
       <c r="U22">
-        <v>1802</v>
+        <v>5121</v>
       </c>
       <c r="V22">
-        <v>9109</v>
+        <v>9393</v>
       </c>
       <c r="W22">
-        <v>10872</v>
+        <v>20047</v>
       </c>
       <c r="X22">
-        <v>12424</v>
+        <v>10180</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -11863,76 +11875,76 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C23">
-        <v>2358</v>
+        <v>18313</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>25836</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>21415</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>27129</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>4769</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3848</v>
       </c>
       <c r="I23">
-        <v>817</v>
+        <v>4038</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>3174</v>
       </c>
       <c r="K23">
-        <v>580</v>
+        <v>3154</v>
       </c>
       <c r="L23">
-        <v>1945</v>
+        <v>19336</v>
       </c>
       <c r="M23">
-        <v>1979</v>
+        <v>19655</v>
       </c>
       <c r="N23">
-        <v>1913</v>
+        <v>30405</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>30547</v>
       </c>
       <c r="P23">
-        <v>2138</v>
+        <v>30511</v>
       </c>
       <c r="Q23">
-        <v>1979</v>
+        <v>31069</v>
       </c>
       <c r="R23">
-        <v>13059</v>
+        <v>38861</v>
       </c>
       <c r="S23">
-        <v>13601</v>
+        <v>33677</v>
       </c>
       <c r="T23">
-        <v>12735</v>
+        <v>29568</v>
       </c>
       <c r="U23">
-        <v>5121</v>
+        <v>37362</v>
       </c>
       <c r="V23">
-        <v>9393</v>
+        <v>35855</v>
       </c>
       <c r="W23">
-        <v>20047</v>
+        <v>31814</v>
       </c>
       <c r="X23">
-        <v>10180</v>
+        <v>35726</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -11940,76 +11952,76 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C24">
-        <v>18313</v>
+        <v>16431</v>
       </c>
       <c r="D24">
-        <v>25836</v>
+        <v>26695</v>
       </c>
       <c r="E24">
-        <v>21415</v>
+        <v>16183</v>
       </c>
       <c r="F24">
-        <v>27129</v>
+        <v>15110</v>
       </c>
       <c r="G24">
-        <v>4769</v>
+        <v>3631</v>
       </c>
       <c r="H24">
-        <v>3848</v>
+        <v>4185</v>
       </c>
       <c r="I24">
-        <v>4038</v>
+        <v>1497</v>
       </c>
       <c r="J24">
-        <v>3174</v>
+        <v>1118</v>
       </c>
       <c r="K24">
-        <v>3154</v>
+        <v>4948</v>
       </c>
       <c r="L24">
-        <v>19336</v>
+        <v>19504</v>
       </c>
       <c r="M24">
-        <v>19655</v>
+        <v>27303</v>
       </c>
       <c r="N24">
-        <v>30405</v>
+        <v>34741</v>
       </c>
       <c r="O24">
-        <v>30547</v>
+        <v>46343</v>
       </c>
       <c r="P24">
-        <v>30511</v>
+        <v>35089</v>
       </c>
       <c r="Q24">
-        <v>31069</v>
+        <v>25385</v>
       </c>
       <c r="R24">
-        <v>38861</v>
+        <v>37702</v>
       </c>
       <c r="S24">
-        <v>33677</v>
+        <v>43741</v>
       </c>
       <c r="T24">
-        <v>29568</v>
+        <v>31380</v>
       </c>
       <c r="U24">
-        <v>37362</v>
+        <v>40278</v>
       </c>
       <c r="V24">
-        <v>35855</v>
+        <v>57121</v>
       </c>
       <c r="W24">
-        <v>31814</v>
+        <v>62570</v>
       </c>
       <c r="X24">
-        <v>35726</v>
+        <v>68073</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -12017,76 +12029,76 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C25">
-        <v>16431</v>
+        <v>21357</v>
       </c>
       <c r="D25">
-        <v>26695</v>
+        <v>23845</v>
       </c>
       <c r="E25">
-        <v>16183</v>
+        <v>22977</v>
       </c>
       <c r="F25">
-        <v>15110</v>
+        <v>16279</v>
       </c>
       <c r="G25">
-        <v>3631</v>
+        <v>4570</v>
       </c>
       <c r="H25">
-        <v>4185</v>
+        <v>7309</v>
       </c>
       <c r="I25">
-        <v>1497</v>
+        <v>5518</v>
       </c>
       <c r="J25">
-        <v>1118</v>
+        <v>5056</v>
       </c>
       <c r="K25">
-        <v>4948</v>
+        <v>6414</v>
       </c>
       <c r="L25">
-        <v>19504</v>
+        <v>30757</v>
       </c>
       <c r="M25">
-        <v>27303</v>
+        <v>37271</v>
       </c>
       <c r="N25">
-        <v>34741</v>
+        <v>50503</v>
       </c>
       <c r="O25">
-        <v>46343</v>
+        <v>53205</v>
       </c>
       <c r="P25">
-        <v>35089</v>
+        <v>53791</v>
       </c>
       <c r="Q25">
-        <v>25385</v>
+        <v>53279</v>
       </c>
       <c r="R25">
-        <v>37702</v>
+        <v>54580</v>
       </c>
       <c r="S25">
-        <v>43741</v>
+        <v>39395</v>
       </c>
       <c r="T25">
-        <v>31380</v>
+        <v>53485</v>
       </c>
       <c r="U25">
-        <v>40278</v>
+        <v>63038</v>
       </c>
       <c r="V25">
-        <v>57121</v>
+        <v>55572</v>
       </c>
       <c r="W25">
-        <v>62570</v>
+        <v>62042</v>
       </c>
       <c r="X25">
-        <v>68073</v>
+        <v>57936</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -12094,484 +12106,487 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C26">
-        <v>21357</v>
+        <v>23694</v>
       </c>
       <c r="D26">
-        <v>23845</v>
+        <v>26152</v>
       </c>
       <c r="E26">
-        <v>22977</v>
+        <v>19077</v>
       </c>
       <c r="F26">
-        <v>16279</v>
+        <v>24879</v>
       </c>
       <c r="G26">
-        <v>4570</v>
+        <v>26881</v>
       </c>
       <c r="H26">
-        <v>7309</v>
+        <v>4786</v>
       </c>
       <c r="I26">
-        <v>5518</v>
+        <v>6195</v>
       </c>
       <c r="J26">
-        <v>5056</v>
+        <v>11407</v>
       </c>
       <c r="K26">
-        <v>6414</v>
+        <v>6967</v>
       </c>
       <c r="L26">
-        <v>30757</v>
+        <v>6282</v>
       </c>
       <c r="M26">
-        <v>37271</v>
+        <v>26653</v>
       </c>
       <c r="N26">
-        <v>50503</v>
+        <v>37076</v>
       </c>
       <c r="O26">
-        <v>53205</v>
+        <v>46370</v>
       </c>
       <c r="P26">
-        <v>53791</v>
+        <v>57978</v>
       </c>
       <c r="Q26">
-        <v>53279</v>
+        <v>45506</v>
       </c>
       <c r="R26">
-        <v>54580</v>
+        <v>42518</v>
       </c>
       <c r="S26">
-        <v>39395</v>
+        <v>50222</v>
       </c>
       <c r="T26">
-        <v>53485</v>
+        <v>34134</v>
       </c>
       <c r="U26">
-        <v>63038</v>
+        <v>48412</v>
       </c>
       <c r="V26">
-        <v>55572</v>
+        <v>59914</v>
       </c>
       <c r="W26">
-        <v>62042</v>
+        <v>56662</v>
       </c>
       <c r="X26">
-        <v>57936</v>
+        <v>53531</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>67297</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C27">
-        <v>148733</v>
+        <v>11343</v>
       </c>
       <c r="D27">
-        <v>178586</v>
+        <v>22579</v>
       </c>
       <c r="E27">
-        <v>147511</v>
+        <v>21013</v>
       </c>
       <c r="F27">
-        <v>168855</v>
+        <v>19874</v>
       </c>
       <c r="G27">
-        <v>85880</v>
+        <v>17936</v>
       </c>
       <c r="H27">
-        <v>31063</v>
+        <v>4421</v>
       </c>
       <c r="I27">
-        <v>38946</v>
+        <v>6866</v>
       </c>
       <c r="J27">
-        <v>41542</v>
+        <v>4020</v>
       </c>
       <c r="K27">
-        <v>42024</v>
+        <v>5759</v>
       </c>
       <c r="L27">
-        <v>108892</v>
+        <v>11078</v>
       </c>
       <c r="M27">
-        <v>208161</v>
+        <v>28710</v>
       </c>
       <c r="N27">
-        <v>282705</v>
+        <v>40412</v>
       </c>
       <c r="O27">
-        <v>319258</v>
+        <v>34267</v>
       </c>
       <c r="P27">
-        <v>339785</v>
+        <v>34834</v>
       </c>
       <c r="Q27">
-        <v>274352</v>
+        <v>31108</v>
       </c>
       <c r="R27">
-        <v>356350</v>
+        <v>25018</v>
       </c>
       <c r="S27">
-        <v>366096</v>
+        <v>36232</v>
       </c>
       <c r="T27">
-        <v>311888</v>
+        <v>34527</v>
       </c>
       <c r="U27">
-        <v>344214</v>
+        <v>34699</v>
       </c>
       <c r="V27">
-        <v>405302</v>
+        <v>33890</v>
       </c>
       <c r="W27">
-        <v>447942</v>
+        <v>51443</v>
       </c>
       <c r="X27">
-        <v>436801</v>
+        <v>50810</v>
       </c>
       <c r="Y27">
-        <v>150293</v>
+        <v>48945</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C28">
-        <v>23694</v>
+        <v>21769</v>
       </c>
       <c r="D28">
-        <v>26152</v>
+        <v>28269</v>
       </c>
       <c r="E28">
-        <v>19077</v>
+        <v>25307</v>
       </c>
       <c r="F28">
-        <v>24879</v>
+        <v>24111</v>
       </c>
       <c r="G28">
-        <v>26881</v>
+        <v>19724</v>
       </c>
       <c r="H28">
-        <v>4786</v>
+        <v>5115</v>
       </c>
       <c r="I28">
-        <v>6195</v>
+        <v>4848</v>
       </c>
       <c r="J28">
-        <v>11407</v>
+        <v>7932</v>
       </c>
       <c r="K28">
-        <v>6967</v>
+        <v>6380</v>
       </c>
       <c r="L28">
-        <v>6282</v>
+        <v>5192</v>
       </c>
       <c r="M28">
-        <v>26653</v>
+        <v>25220</v>
       </c>
       <c r="N28">
-        <v>37076</v>
+        <v>38363</v>
       </c>
       <c r="O28">
-        <v>46370</v>
+        <v>37806</v>
       </c>
       <c r="P28">
-        <v>57978</v>
+        <v>45067</v>
       </c>
       <c r="Q28">
-        <v>45506</v>
+        <v>33193</v>
       </c>
       <c r="R28">
-        <v>42518</v>
+        <v>43976</v>
       </c>
       <c r="S28">
-        <v>50222</v>
+        <v>42679</v>
       </c>
       <c r="T28">
-        <v>34134</v>
+        <v>27080</v>
       </c>
       <c r="U28">
-        <v>48412</v>
+        <v>44274</v>
       </c>
       <c r="V28">
-        <v>59914</v>
+        <v>42611</v>
       </c>
       <c r="W28">
-        <v>56662</v>
+        <v>51567</v>
       </c>
       <c r="X28">
-        <v>53531</v>
+        <v>50027</v>
       </c>
       <c r="Y28">
-        <v>67297</v>
+        <v>18112</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C29">
-        <v>11343</v>
+        <v>23509</v>
       </c>
       <c r="D29">
-        <v>22579</v>
+        <v>23172</v>
       </c>
       <c r="E29">
-        <v>21013</v>
+        <v>19521</v>
       </c>
       <c r="F29">
-        <v>19874</v>
+        <v>34391</v>
       </c>
       <c r="G29">
-        <v>17936</v>
+        <v>7041</v>
       </c>
       <c r="H29">
-        <v>4421</v>
+        <v>1399</v>
       </c>
       <c r="I29">
-        <v>6866</v>
+        <v>9167</v>
       </c>
       <c r="J29">
-        <v>4020</v>
+        <v>5604</v>
       </c>
       <c r="K29">
-        <v>5759</v>
+        <v>6457</v>
       </c>
       <c r="L29">
-        <v>11078</v>
+        <v>12470</v>
       </c>
       <c r="M29">
-        <v>28710</v>
+        <v>37792</v>
       </c>
       <c r="N29">
-        <v>40412</v>
+        <v>42784</v>
       </c>
       <c r="O29">
-        <v>34267</v>
+        <v>38872</v>
       </c>
       <c r="P29">
-        <v>34834</v>
+        <v>45316</v>
       </c>
       <c r="Q29">
-        <v>31108</v>
+        <v>30150</v>
       </c>
       <c r="R29">
-        <v>25018</v>
+        <v>42375</v>
       </c>
       <c r="S29">
-        <v>36232</v>
+        <v>38576</v>
       </c>
       <c r="T29">
-        <v>34527</v>
+        <v>38695</v>
       </c>
       <c r="U29">
-        <v>34699</v>
+        <v>33843</v>
       </c>
       <c r="V29">
-        <v>33890</v>
+        <v>47769</v>
       </c>
       <c r="W29">
-        <v>51443</v>
+        <v>38070</v>
       </c>
       <c r="X29">
-        <v>50810</v>
+        <v>38738</v>
       </c>
       <c r="Y29">
-        <v>48945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C30">
-        <v>21769</v>
+        <v>1994</v>
       </c>
       <c r="D30">
-        <v>28269</v>
+        <v>2038</v>
       </c>
       <c r="E30">
-        <v>25307</v>
+        <v>2018</v>
       </c>
       <c r="F30">
-        <v>24111</v>
+        <v>7082</v>
       </c>
       <c r="G30">
-        <v>19724</v>
+        <v>1328</v>
       </c>
       <c r="H30">
-        <v>5115</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>4848</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>7932</v>
+        <v>1701</v>
       </c>
       <c r="K30">
-        <v>6380</v>
+        <v>1365</v>
       </c>
       <c r="L30">
-        <v>5192</v>
+        <v>1329</v>
       </c>
       <c r="M30">
-        <v>25220</v>
+        <v>1046</v>
       </c>
       <c r="N30">
-        <v>38363</v>
+        <v>1240</v>
       </c>
       <c r="O30">
-        <v>37806</v>
+        <v>8135</v>
       </c>
       <c r="P30">
-        <v>45067</v>
+        <v>12279</v>
       </c>
       <c r="Q30">
-        <v>33193</v>
+        <v>6275</v>
       </c>
       <c r="R30">
-        <v>43976</v>
+        <v>10396</v>
       </c>
       <c r="S30">
-        <v>42679</v>
+        <v>19143</v>
       </c>
       <c r="T30">
-        <v>27080</v>
+        <v>16714</v>
       </c>
       <c r="U30">
-        <v>44274</v>
+        <v>10090</v>
       </c>
       <c r="V30">
-        <v>42611</v>
+        <v>7140</v>
       </c>
       <c r="W30">
-        <v>51567</v>
+        <v>11759</v>
       </c>
       <c r="X30">
-        <v>50027</v>
+        <v>4944</v>
       </c>
       <c r="Y30">
-        <v>18112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C31">
-        <v>23509</v>
+        <v>2851</v>
       </c>
       <c r="D31">
-        <v>23172</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>19521</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>34391</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>7041</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>1399</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>9167</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>5604</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>6457</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>12470</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>37792</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>42784</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>38872</v>
+        <v>1160</v>
       </c>
       <c r="P31">
-        <v>45316</v>
+        <v>1809</v>
       </c>
       <c r="Q31">
-        <v>30150</v>
+        <v>1194</v>
       </c>
       <c r="R31">
-        <v>42375</v>
+        <v>4364</v>
       </c>
       <c r="S31">
-        <v>38576</v>
+        <v>590</v>
       </c>
       <c r="T31">
-        <v>38695</v>
+        <v>1231</v>
       </c>
       <c r="U31">
-        <v>33843</v>
+        <v>641</v>
       </c>
       <c r="V31">
-        <v>47769</v>
+        <v>3883</v>
       </c>
       <c r="W31">
-        <v>38070</v>
+        <v>6588</v>
       </c>
       <c r="X31">
-        <v>38738</v>
+        <v>5242</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C32">
-        <v>1994</v>
+        <v>2571</v>
       </c>
       <c r="D32">
-        <v>2038</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>2018</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>7082</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>1328</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -12580,60 +12595,63 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1701</v>
+        <v>1530</v>
       </c>
       <c r="K32">
-        <v>1365</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>1329</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>1046</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>1240</v>
+        <v>0</v>
       </c>
       <c r="O32">
-        <v>8135</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>12279</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>6275</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>10396</v>
+        <v>5352</v>
       </c>
       <c r="S32">
-        <v>19143</v>
+        <v>4009</v>
       </c>
       <c r="T32">
-        <v>16714</v>
+        <v>665</v>
       </c>
       <c r="U32">
-        <v>10090</v>
+        <v>1846</v>
       </c>
       <c r="V32">
-        <v>7140</v>
+        <v>3308</v>
       </c>
       <c r="W32">
-        <v>11759</v>
+        <v>5949</v>
       </c>
       <c r="X32">
-        <v>4944</v>
+        <v>4199</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C33">
-        <v>2851</v>
+        <v>2543</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -12660,54 +12678,57 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>2532</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>1931</v>
       </c>
       <c r="O33">
-        <v>1160</v>
+        <v>0</v>
       </c>
       <c r="P33">
-        <v>1809</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>1194</v>
+        <v>64</v>
       </c>
       <c r="R33">
-        <v>4364</v>
+        <v>6453</v>
       </c>
       <c r="S33">
-        <v>590</v>
+        <v>9873</v>
       </c>
       <c r="T33">
-        <v>1231</v>
+        <v>1904</v>
       </c>
       <c r="U33">
-        <v>641</v>
+        <v>1802</v>
       </c>
       <c r="V33">
-        <v>3883</v>
+        <v>5238</v>
       </c>
       <c r="W33">
-        <v>6588</v>
+        <v>5064</v>
       </c>
       <c r="X33">
-        <v>5242</v>
+        <v>4919</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C34">
-        <v>2571</v>
+        <v>2358</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -12725,2203 +12746,1735 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>817</v>
       </c>
       <c r="J34">
-        <v>1530</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1945</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1979</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>1913</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>2138</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>1979</v>
       </c>
       <c r="R34">
-        <v>5352</v>
+        <v>9894</v>
       </c>
       <c r="S34">
-        <v>4009</v>
+        <v>9719</v>
       </c>
       <c r="T34">
-        <v>665</v>
+        <v>8520</v>
       </c>
       <c r="U34">
-        <v>1846</v>
+        <v>5095</v>
       </c>
       <c r="V34">
-        <v>3308</v>
+        <v>4878</v>
       </c>
       <c r="W34">
-        <v>5949</v>
+        <v>12767</v>
       </c>
       <c r="X34">
-        <v>4199</v>
+        <v>4016</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C35">
-        <v>2543</v>
+        <v>18313</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>25836</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>21415</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>27129</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>4769</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>3848</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>4038</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>3174</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>3154</v>
       </c>
       <c r="L35">
-        <v>999</v>
+        <v>19336</v>
       </c>
       <c r="M35">
-        <v>2532</v>
+        <v>19655</v>
       </c>
       <c r="N35">
-        <v>1931</v>
+        <v>27838</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>28183</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>27841</v>
       </c>
       <c r="Q35">
-        <v>64</v>
+        <v>31069</v>
       </c>
       <c r="R35">
-        <v>6453</v>
+        <v>35084</v>
       </c>
       <c r="S35">
-        <v>9873</v>
+        <v>28383</v>
       </c>
       <c r="T35">
-        <v>1904</v>
+        <v>24191</v>
       </c>
       <c r="U35">
-        <v>1802</v>
+        <v>30566</v>
       </c>
       <c r="V35">
-        <v>5238</v>
+        <v>28467</v>
       </c>
       <c r="W35">
-        <v>5064</v>
+        <v>25411</v>
       </c>
       <c r="X35">
-        <v>4919</v>
+        <v>29430</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C36">
-        <v>2358</v>
+        <v>16431</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>26695</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>16183</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>15110</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>3631</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>4185</v>
       </c>
       <c r="I36">
-        <v>817</v>
+        <v>1497</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1118</v>
       </c>
       <c r="K36">
-        <v>580</v>
+        <v>4948</v>
       </c>
       <c r="L36">
-        <v>1945</v>
+        <v>19504</v>
       </c>
       <c r="M36">
-        <v>1979</v>
+        <v>27303</v>
       </c>
       <c r="N36">
-        <v>1913</v>
+        <v>32853</v>
       </c>
       <c r="O36">
-        <v>108</v>
+        <v>42849</v>
       </c>
       <c r="P36">
-        <v>2138</v>
+        <v>31537</v>
       </c>
       <c r="Q36">
-        <v>1979</v>
+        <v>24618</v>
       </c>
       <c r="R36">
-        <v>9894</v>
+        <v>32475</v>
       </c>
       <c r="S36">
-        <v>9719</v>
+        <v>36999</v>
       </c>
       <c r="T36">
-        <v>8520</v>
+        <v>26300</v>
       </c>
       <c r="U36">
-        <v>5095</v>
+        <v>35013</v>
       </c>
       <c r="V36">
-        <v>4878</v>
+        <v>51893</v>
       </c>
       <c r="W36">
-        <v>12767</v>
+        <v>56167</v>
       </c>
       <c r="X36">
-        <v>4016</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+        <v>60216</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C37">
-        <v>18313</v>
+        <v>21357</v>
       </c>
       <c r="D37">
-        <v>25836</v>
+        <v>23845</v>
       </c>
       <c r="E37">
-        <v>21415</v>
+        <v>22977</v>
       </c>
       <c r="F37">
-        <v>27129</v>
+        <v>16279</v>
       </c>
       <c r="G37">
-        <v>4769</v>
+        <v>4570</v>
       </c>
       <c r="H37">
-        <v>3848</v>
+        <v>7309</v>
       </c>
       <c r="I37">
-        <v>4038</v>
+        <v>5518</v>
       </c>
       <c r="J37">
-        <v>3174</v>
+        <v>5056</v>
       </c>
       <c r="K37">
-        <v>3154</v>
+        <v>6414</v>
       </c>
       <c r="L37">
-        <v>19336</v>
+        <v>30757</v>
       </c>
       <c r="M37">
-        <v>19655</v>
+        <v>35801</v>
       </c>
       <c r="N37">
-        <v>27838</v>
+        <v>45847</v>
       </c>
       <c r="O37">
-        <v>28183</v>
+        <v>48670</v>
       </c>
       <c r="P37">
-        <v>27841</v>
+        <v>47133</v>
       </c>
       <c r="Q37">
-        <v>31069</v>
+        <v>46375</v>
       </c>
       <c r="R37">
-        <v>35084</v>
+        <v>48566</v>
       </c>
       <c r="S37">
-        <v>28383</v>
+        <v>34532</v>
       </c>
       <c r="T37">
-        <v>24191</v>
+        <v>49855</v>
       </c>
       <c r="U37">
-        <v>30566</v>
+        <v>58117</v>
       </c>
       <c r="V37">
-        <v>28467</v>
+        <v>49181</v>
       </c>
       <c r="W37">
-        <v>25411</v>
+        <v>53940</v>
       </c>
       <c r="X37">
-        <v>29430</v>
+        <v>52011</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38">
-        <v>16431</v>
-      </c>
-      <c r="D38">
-        <v>26695</v>
-      </c>
-      <c r="E38">
-        <v>16183</v>
-      </c>
-      <c r="F38">
-        <v>15110</v>
-      </c>
-      <c r="G38">
-        <v>3631</v>
-      </c>
-      <c r="H38">
-        <v>4185</v>
-      </c>
-      <c r="I38">
-        <v>1497</v>
-      </c>
-      <c r="J38">
-        <v>1118</v>
-      </c>
-      <c r="K38">
-        <v>4948</v>
-      </c>
-      <c r="L38">
-        <v>19504</v>
-      </c>
-      <c r="M38">
-        <v>27303</v>
-      </c>
-      <c r="N38">
-        <v>32853</v>
+        <v>114</v>
+      </c>
+      <c r="N38" s="29" t="s">
+        <v>127</v>
       </c>
       <c r="O38">
-        <v>42849</v>
+        <v>5326</v>
       </c>
       <c r="P38">
-        <v>31537</v>
+        <v>5321</v>
       </c>
       <c r="Q38">
-        <v>24618</v>
+        <v>6348</v>
       </c>
       <c r="R38">
-        <v>32475</v>
+        <v>5477</v>
       </c>
       <c r="S38">
-        <v>36999</v>
+        <v>5860</v>
       </c>
       <c r="T38">
-        <v>26300</v>
+        <v>9221</v>
       </c>
       <c r="U38">
-        <v>35013</v>
+        <v>6343</v>
       </c>
       <c r="V38">
-        <v>51893</v>
+        <v>7084</v>
       </c>
       <c r="W38">
-        <v>56167</v>
+        <v>5467</v>
       </c>
       <c r="X38">
-        <v>60216</v>
+        <v>5734</v>
+      </c>
+      <c r="Y38">
+        <v>6548</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="C39">
-        <v>21357</v>
-      </c>
-      <c r="D39">
-        <v>23845</v>
-      </c>
-      <c r="E39">
-        <v>22977</v>
-      </c>
-      <c r="F39">
-        <v>16279</v>
-      </c>
-      <c r="G39">
-        <v>4570</v>
-      </c>
-      <c r="H39">
-        <v>7309</v>
-      </c>
-      <c r="I39">
-        <v>5518</v>
-      </c>
-      <c r="J39">
-        <v>5056</v>
-      </c>
-      <c r="K39">
-        <v>6414</v>
-      </c>
-      <c r="L39">
-        <v>30757</v>
-      </c>
-      <c r="M39">
-        <v>35801</v>
-      </c>
-      <c r="N39">
-        <v>45847</v>
+        <v>115</v>
+      </c>
+      <c r="N39" s="29" t="s">
+        <v>128</v>
       </c>
       <c r="O39">
-        <v>48670</v>
+        <v>3999</v>
       </c>
       <c r="P39">
-        <v>47133</v>
+        <v>4197</v>
       </c>
       <c r="Q39">
-        <v>46375</v>
+        <v>5400</v>
       </c>
       <c r="R39">
-        <v>48566</v>
+        <v>4496</v>
       </c>
       <c r="S39">
-        <v>34532</v>
+        <v>5195</v>
       </c>
       <c r="T39">
-        <v>49855</v>
+        <v>6760</v>
       </c>
       <c r="U39">
-        <v>58117</v>
+        <v>4294</v>
       </c>
       <c r="V39">
-        <v>49181</v>
+        <v>4875</v>
       </c>
       <c r="W39">
-        <v>53940</v>
+        <v>4919</v>
       </c>
       <c r="X39">
-        <v>52011</v>
+        <v>5501</v>
+      </c>
+      <c r="Y39">
+        <v>7749</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40">
-        <v>148733</v>
-      </c>
-      <c r="D40">
-        <v>178586</v>
-      </c>
-      <c r="E40">
-        <v>147511</v>
-      </c>
-      <c r="F40">
-        <v>168855</v>
-      </c>
-      <c r="G40">
-        <v>85880</v>
-      </c>
-      <c r="H40">
-        <v>31063</v>
-      </c>
-      <c r="I40">
-        <v>38946</v>
-      </c>
-      <c r="J40">
-        <v>41542</v>
-      </c>
-      <c r="K40">
-        <v>42024</v>
-      </c>
-      <c r="L40">
-        <v>108892</v>
-      </c>
-      <c r="M40">
-        <v>206691</v>
-      </c>
-      <c r="N40">
-        <v>270257</v>
+        <v>116</v>
+      </c>
+      <c r="N40" s="29" t="s">
+        <v>129</v>
       </c>
       <c r="O40">
-        <v>286420</v>
+        <v>4773</v>
       </c>
       <c r="P40">
-        <v>305932</v>
+        <v>4236</v>
       </c>
       <c r="Q40">
-        <v>251531</v>
+        <v>2282</v>
       </c>
       <c r="R40">
-        <v>306471</v>
+        <v>4783</v>
       </c>
       <c r="S40">
-        <v>310957</v>
+        <v>6704</v>
       </c>
       <c r="T40">
-        <v>263816</v>
+        <v>5964</v>
       </c>
       <c r="U40">
-        <v>304398</v>
+        <v>3995</v>
       </c>
       <c r="V40">
-        <v>338172</v>
+        <v>5355</v>
       </c>
       <c r="W40">
-        <v>375387</v>
+        <v>7190</v>
       </c>
       <c r="X40">
-        <v>358083</v>
+        <v>7121</v>
       </c>
       <c r="Y40">
-        <v>134354</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N41" s="29" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O41">
-        <v>5326</v>
+        <v>2534</v>
       </c>
       <c r="P41">
-        <v>5321</v>
+        <v>4494</v>
       </c>
       <c r="Q41">
-        <v>6348</v>
+        <v>1120</v>
       </c>
       <c r="R41">
-        <v>5477</v>
+        <v>2356</v>
       </c>
       <c r="S41">
-        <v>5860</v>
+        <v>3733</v>
       </c>
       <c r="T41">
-        <v>9221</v>
+        <v>4111</v>
       </c>
       <c r="U41">
-        <v>6343</v>
+        <v>4410</v>
       </c>
       <c r="V41">
-        <v>7084</v>
+        <v>7156</v>
       </c>
       <c r="W41">
-        <v>5467</v>
+        <v>5568</v>
       </c>
       <c r="X41">
-        <v>5734</v>
+        <v>5991</v>
       </c>
       <c r="Y41">
-        <v>6548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N42" s="29" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O42">
-        <v>3999</v>
+        <v>3351</v>
       </c>
       <c r="P42">
-        <v>4197</v>
+        <v>2113</v>
       </c>
       <c r="Q42">
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>4496</v>
+        <v>3387</v>
       </c>
       <c r="S42">
-        <v>5195</v>
+        <v>4329</v>
       </c>
       <c r="T42">
-        <v>6760</v>
+        <v>3706</v>
       </c>
       <c r="U42">
-        <v>4294</v>
+        <v>3766</v>
       </c>
       <c r="V42">
-        <v>4875</v>
+        <v>5993</v>
       </c>
       <c r="W42">
-        <v>4919</v>
+        <v>1414</v>
       </c>
       <c r="X42">
-        <v>5501</v>
+        <v>5907</v>
       </c>
       <c r="Y42">
-        <v>7749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N43" s="29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O43">
-        <v>4773</v>
+        <v>2570</v>
       </c>
       <c r="P43">
-        <v>4236</v>
+        <v>612</v>
       </c>
       <c r="Q43">
-        <v>2282</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>4783</v>
+        <v>4197</v>
       </c>
       <c r="S43">
-        <v>6704</v>
+        <v>0</v>
       </c>
       <c r="T43">
-        <v>5964</v>
+        <v>8</v>
       </c>
       <c r="U43">
-        <v>3995</v>
+        <v>0</v>
       </c>
       <c r="V43">
-        <v>5355</v>
+        <v>4147</v>
       </c>
       <c r="W43">
-        <v>7190</v>
+        <v>7566</v>
       </c>
       <c r="X43">
-        <v>7121</v>
+        <v>8349</v>
       </c>
       <c r="Y43">
-        <v>1531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="N44" s="29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O44">
-        <v>2534</v>
+        <v>0</v>
       </c>
       <c r="P44">
-        <v>4494</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>1120</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>2356</v>
+        <v>3344</v>
       </c>
       <c r="S44">
-        <v>3733</v>
+        <v>3364</v>
       </c>
       <c r="T44">
-        <v>4111</v>
+        <v>0</v>
       </c>
       <c r="U44">
-        <v>4410</v>
+        <v>0</v>
       </c>
       <c r="V44">
-        <v>7156</v>
+        <v>5127</v>
       </c>
       <c r="W44">
-        <v>5568</v>
+        <v>6049</v>
       </c>
       <c r="X44">
-        <v>5991</v>
+        <v>5924</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N45" s="29" t="s">
         <v>131</v>
       </c>
       <c r="O45">
-        <v>3351</v>
+        <v>0</v>
       </c>
       <c r="P45">
-        <v>2113</v>
+        <v>0</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>3387</v>
+        <v>3656</v>
       </c>
       <c r="S45">
-        <v>4329</v>
+        <v>5173</v>
       </c>
       <c r="T45">
-        <v>3706</v>
+        <v>0</v>
       </c>
       <c r="U45">
-        <v>3766</v>
+        <v>0</v>
       </c>
       <c r="V45">
-        <v>5993</v>
+        <v>3871</v>
       </c>
       <c r="W45">
-        <v>1414</v>
+        <v>5795</v>
       </c>
       <c r="X45">
-        <v>5907</v>
+        <v>7505</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="N46" s="29" t="s">
         <v>131</v>
       </c>
       <c r="O46">
-        <v>2570</v>
+        <v>0</v>
       </c>
       <c r="P46">
-        <v>612</v>
+        <v>0</v>
       </c>
       <c r="Q46">
         <v>0</v>
       </c>
       <c r="R46">
-        <v>4197</v>
+        <v>3165</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>3882</v>
       </c>
       <c r="T46">
-        <v>8</v>
+        <v>4215</v>
       </c>
       <c r="U46">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="V46">
-        <v>4147</v>
+        <v>4515</v>
       </c>
       <c r="W46">
-        <v>7566</v>
+        <v>7269</v>
       </c>
       <c r="X46">
-        <v>8349</v>
+        <v>6147</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="N47" s="29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>2364</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>2670</v>
       </c>
       <c r="Q47">
         <v>0</v>
       </c>
       <c r="R47">
-        <v>3344</v>
+        <v>3777</v>
       </c>
       <c r="S47">
-        <v>3364</v>
+        <v>5294</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>5377</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>6796</v>
       </c>
       <c r="V47">
-        <v>5127</v>
+        <v>7388</v>
       </c>
       <c r="W47">
-        <v>6049</v>
+        <v>6365</v>
       </c>
       <c r="X47">
-        <v>5924</v>
+        <v>6172</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N48" s="29" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>3494</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>3552</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>767</v>
       </c>
       <c r="R48">
-        <v>3656</v>
+        <v>5227</v>
       </c>
       <c r="S48">
-        <v>5173</v>
+        <v>6742</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>5080</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>5265</v>
       </c>
       <c r="V48">
-        <v>3871</v>
+        <v>5228</v>
       </c>
       <c r="W48">
-        <v>5795</v>
+        <v>6320</v>
       </c>
       <c r="X48">
-        <v>7505</v>
+        <v>7775</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>122</v>
+        <v>125</v>
+      </c>
+      <c r="M49">
+        <v>1470</v>
       </c>
       <c r="N49" s="29" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>4535</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>6658</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>6904</v>
       </c>
       <c r="R49">
-        <v>3165</v>
+        <v>6014</v>
       </c>
       <c r="S49">
-        <v>3882</v>
+        <v>4863</v>
       </c>
       <c r="T49">
-        <v>4215</v>
+        <v>3630</v>
       </c>
       <c r="U49">
-        <v>26</v>
+        <v>4921</v>
       </c>
       <c r="V49">
-        <v>4515</v>
+        <v>6391</v>
       </c>
       <c r="W49">
-        <v>7269</v>
+        <v>8044</v>
       </c>
       <c r="X49">
-        <v>6147</v>
+        <v>5869</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="N50" s="29" t="s">
-        <v>132</v>
+        <v>114</v>
+      </c>
+      <c r="C50">
+        <v>11848</v>
+      </c>
+      <c r="D50">
+        <v>12967</v>
+      </c>
+      <c r="E50">
+        <v>9503</v>
+      </c>
+      <c r="F50">
+        <v>12462</v>
+      </c>
+      <c r="G50">
+        <v>12157</v>
+      </c>
+      <c r="H50">
+        <v>2400</v>
+      </c>
+      <c r="I50">
+        <v>2986</v>
+      </c>
+      <c r="J50">
+        <v>4904</v>
+      </c>
+      <c r="K50">
+        <v>2780</v>
+      </c>
+      <c r="L50">
+        <v>2962</v>
+      </c>
+      <c r="M50">
+        <v>13309</v>
+      </c>
+      <c r="N50">
+        <v>16107</v>
       </c>
       <c r="O50">
-        <v>2364</v>
+        <v>20419</v>
       </c>
       <c r="P50">
-        <v>2670</v>
+        <v>24165</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>19737</v>
       </c>
       <c r="R50">
-        <v>3777</v>
+        <v>21079</v>
       </c>
       <c r="S50">
-        <v>5294</v>
+        <v>24185</v>
       </c>
       <c r="T50">
-        <v>5377</v>
+        <v>17140</v>
       </c>
       <c r="U50">
-        <v>6796</v>
+        <v>23845</v>
       </c>
       <c r="V50">
-        <v>7388</v>
+        <v>29569</v>
       </c>
       <c r="W50">
-        <v>6365</v>
+        <v>25100</v>
       </c>
       <c r="X50">
-        <v>6172</v>
+        <v>24776</v>
+      </c>
+      <c r="Y50">
+        <v>29993</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="N51" s="29" t="s">
-        <v>133</v>
+        <v>115</v>
+      </c>
+      <c r="C51">
+        <v>6066</v>
+      </c>
+      <c r="D51">
+        <v>12268</v>
+      </c>
+      <c r="E51">
+        <v>9995</v>
+      </c>
+      <c r="F51">
+        <v>9353</v>
+      </c>
+      <c r="G51">
+        <v>8521</v>
+      </c>
+      <c r="H51">
+        <v>1900</v>
+      </c>
+      <c r="I51">
+        <v>2775</v>
+      </c>
+      <c r="J51">
+        <v>1515</v>
+      </c>
+      <c r="K51">
+        <v>2405</v>
+      </c>
+      <c r="L51">
+        <v>5041</v>
+      </c>
+      <c r="M51">
+        <v>12757</v>
+      </c>
+      <c r="N51">
+        <v>17387</v>
       </c>
       <c r="O51">
-        <v>3494</v>
+        <v>15252</v>
       </c>
       <c r="P51">
-        <v>3552</v>
+        <v>14831</v>
       </c>
       <c r="Q51">
-        <v>767</v>
+        <v>12140</v>
       </c>
       <c r="R51">
-        <v>5227</v>
+        <v>12594</v>
       </c>
       <c r="S51">
-        <v>6742</v>
+        <v>15235</v>
       </c>
       <c r="T51">
-        <v>5080</v>
+        <v>16970</v>
       </c>
       <c r="U51">
-        <v>5265</v>
+        <v>17657</v>
       </c>
       <c r="V51">
-        <v>5228</v>
+        <v>14921</v>
       </c>
       <c r="W51">
-        <v>6320</v>
+        <v>21865</v>
       </c>
       <c r="X51">
-        <v>7775</v>
+        <v>22427</v>
+      </c>
+      <c r="Y51">
+        <v>22326</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>125</v>
+        <v>116</v>
+      </c>
+      <c r="C52">
+        <v>10495</v>
+      </c>
+      <c r="D52">
+        <v>13848</v>
+      </c>
+      <c r="E52">
+        <v>14846</v>
+      </c>
+      <c r="F52">
+        <v>11904</v>
+      </c>
+      <c r="G52">
+        <v>8690</v>
+      </c>
+      <c r="H52">
+        <v>2327</v>
+      </c>
+      <c r="I52">
+        <v>2099</v>
+      </c>
+      <c r="J52">
+        <v>3414</v>
+      </c>
+      <c r="K52">
+        <v>3075</v>
+      </c>
+      <c r="L52">
+        <v>2180</v>
       </c>
       <c r="M52">
-        <v>1470</v>
-      </c>
-      <c r="N52" s="29" t="s">
-        <v>134</v>
+        <v>11731</v>
+      </c>
+      <c r="N52">
+        <v>15625</v>
       </c>
       <c r="O52">
-        <v>4535</v>
+        <v>17239</v>
       </c>
       <c r="P52">
-        <v>6658</v>
+        <v>19623</v>
       </c>
       <c r="Q52">
-        <v>6904</v>
+        <v>14289</v>
       </c>
       <c r="R52">
-        <v>6014</v>
+        <v>21252</v>
       </c>
       <c r="S52">
-        <v>4863</v>
+        <v>20064</v>
       </c>
       <c r="T52">
-        <v>3630</v>
+        <v>12840</v>
       </c>
       <c r="U52">
-        <v>4921</v>
+        <v>20617</v>
       </c>
       <c r="V52">
-        <v>6391</v>
+        <v>19317</v>
       </c>
       <c r="W52">
-        <v>8044</v>
+        <v>22784</v>
       </c>
       <c r="X52">
-        <v>5869</v>
+        <v>22656</v>
+      </c>
+      <c r="Y52">
+        <v>8140</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>126</v>
+        <v>117</v>
+      </c>
+      <c r="C53">
+        <v>11652</v>
+      </c>
+      <c r="D53">
+        <v>10534</v>
+      </c>
+      <c r="E53">
+        <v>9326</v>
+      </c>
+      <c r="F53">
+        <v>15862</v>
+      </c>
+      <c r="G53">
+        <v>3123</v>
+      </c>
+      <c r="H53">
+        <v>568</v>
+      </c>
+      <c r="I53">
+        <v>4253</v>
+      </c>
+      <c r="J53">
+        <v>2260</v>
+      </c>
+      <c r="K53">
+        <v>3019</v>
+      </c>
+      <c r="L53">
+        <v>5784</v>
       </c>
       <c r="M53">
-        <v>1470</v>
-      </c>
-      <c r="N53" s="29" t="s">
-        <v>135</v>
+        <v>17383</v>
+      </c>
+      <c r="N53">
+        <v>18424</v>
       </c>
       <c r="O53">
-        <v>32946</v>
+        <v>19226</v>
       </c>
       <c r="P53">
-        <v>33853</v>
+        <v>20113</v>
       </c>
       <c r="Q53">
-        <v>22821</v>
+        <v>13600</v>
       </c>
       <c r="R53">
-        <v>49879</v>
+        <v>20106</v>
       </c>
       <c r="S53">
-        <v>55139</v>
+        <v>17785</v>
       </c>
       <c r="T53">
-        <v>48072</v>
+        <v>19149</v>
       </c>
       <c r="U53">
-        <v>39816</v>
+        <v>16930</v>
       </c>
       <c r="V53">
-        <v>67130</v>
+        <v>22394</v>
       </c>
       <c r="W53">
-        <v>71966</v>
+        <v>19000</v>
       </c>
       <c r="X53">
-        <v>77995</v>
+        <v>18506</v>
       </c>
       <c r="Y53">
-        <v>15828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C54">
-        <v>11848</v>
+        <v>1806</v>
       </c>
       <c r="D54">
-        <v>12967</v>
+        <v>1174</v>
       </c>
       <c r="E54">
-        <v>9503</v>
+        <v>870</v>
       </c>
       <c r="F54">
-        <v>12462</v>
+        <v>3275</v>
       </c>
       <c r="G54">
-        <v>12157</v>
+        <v>594</v>
       </c>
       <c r="H54">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>2986</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>4904</v>
+        <v>738</v>
       </c>
       <c r="K54">
-        <v>2780</v>
+        <v>597</v>
       </c>
       <c r="L54">
-        <v>2962</v>
+        <v>629</v>
       </c>
       <c r="M54">
-        <v>13309</v>
+        <v>833</v>
       </c>
       <c r="N54">
-        <v>16107</v>
+        <v>638</v>
       </c>
       <c r="O54">
-        <v>20419</v>
+        <v>5365</v>
       </c>
       <c r="P54">
-        <v>24165</v>
+        <v>5393</v>
       </c>
       <c r="Q54">
-        <v>19737</v>
+        <v>2993</v>
       </c>
       <c r="R54">
-        <v>21079</v>
+        <v>6418</v>
       </c>
       <c r="S54">
-        <v>24185</v>
+        <v>10268</v>
       </c>
       <c r="T54">
-        <v>17140</v>
+        <v>8403</v>
       </c>
       <c r="U54">
-        <v>23845</v>
+        <v>5571</v>
       </c>
       <c r="V54">
-        <v>29569</v>
+        <v>5426</v>
       </c>
       <c r="W54">
-        <v>25100</v>
+        <v>7131</v>
       </c>
       <c r="X54">
-        <v>24776</v>
+        <v>3866</v>
       </c>
       <c r="Y54">
-        <v>29993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C55">
-        <v>6066</v>
-      </c>
-      <c r="D55">
-        <v>12268</v>
+        <v>2019</v>
       </c>
       <c r="E55">
-        <v>9995</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>9353</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>8521</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>2775</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>1515</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>2405</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>5041</v>
+        <v>0</v>
       </c>
       <c r="M55">
-        <v>12757</v>
+        <v>0</v>
       </c>
       <c r="N55">
-        <v>17387</v>
+        <v>0</v>
       </c>
       <c r="O55">
-        <v>15252</v>
+        <v>1919</v>
       </c>
       <c r="P55">
-        <v>14831</v>
+        <v>982</v>
       </c>
       <c r="Q55">
-        <v>12140</v>
+        <v>860</v>
       </c>
       <c r="R55">
-        <v>12594</v>
+        <v>3896</v>
       </c>
       <c r="S55">
-        <v>15235</v>
+        <v>465</v>
       </c>
       <c r="T55">
-        <v>16970</v>
+        <v>1461</v>
       </c>
       <c r="U55">
-        <v>17657</v>
+        <v>405</v>
       </c>
       <c r="V55">
-        <v>14921</v>
+        <v>3473</v>
       </c>
       <c r="W55">
-        <v>21865</v>
+        <v>5198</v>
       </c>
       <c r="X55">
-        <v>22427</v>
+        <v>4332</v>
       </c>
       <c r="Y55">
-        <v>22326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C56">
-        <v>10495</v>
-      </c>
-      <c r="D56">
-        <v>13848</v>
+        <v>1685</v>
       </c>
       <c r="E56">
-        <v>14846</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>11904</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>8690</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>2327</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>2099</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>3414</v>
+        <v>709</v>
       </c>
       <c r="K56">
-        <v>3075</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>2180</v>
+        <v>0</v>
       </c>
       <c r="M56">
-        <v>11731</v>
+        <v>0</v>
       </c>
       <c r="N56">
-        <v>15625</v>
+        <v>0</v>
       </c>
       <c r="O56">
-        <v>17239</v>
+        <v>0</v>
       </c>
       <c r="P56">
-        <v>19623</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>14289</v>
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>21252</v>
+        <v>3154</v>
       </c>
       <c r="S56">
-        <v>20064</v>
+        <v>2367</v>
       </c>
       <c r="T56">
-        <v>12840</v>
+        <v>403</v>
       </c>
       <c r="U56">
-        <v>20617</v>
+        <v>851</v>
       </c>
       <c r="V56">
-        <v>19317</v>
+        <v>3021</v>
       </c>
       <c r="W56">
-        <v>22784</v>
+        <v>3552</v>
       </c>
       <c r="X56">
-        <v>22656</v>
+        <v>3184</v>
       </c>
       <c r="Y56">
-        <v>8140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C57">
-        <v>11652</v>
+        <v>1693</v>
       </c>
       <c r="D57">
-        <v>10534</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>9326</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>15862</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>3123</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>568</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>4253</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>2260</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <v>3019</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>5784</v>
+        <v>316</v>
       </c>
       <c r="M57">
-        <v>17383</v>
+        <v>1000</v>
       </c>
       <c r="N57">
-        <v>18424</v>
+        <v>939</v>
       </c>
       <c r="O57">
-        <v>19226</v>
+        <v>0</v>
       </c>
       <c r="P57">
-        <v>20113</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>13600</v>
+        <v>150</v>
       </c>
       <c r="R57">
-        <v>20106</v>
+        <v>3940</v>
       </c>
       <c r="S57">
-        <v>17785</v>
+        <v>4848</v>
       </c>
       <c r="T57">
-        <v>19149</v>
+        <v>844</v>
       </c>
       <c r="U57">
-        <v>16930</v>
+        <v>1016</v>
       </c>
       <c r="V57">
-        <v>22394</v>
+        <v>3835</v>
       </c>
       <c r="W57">
-        <v>19000</v>
+        <v>3773</v>
       </c>
       <c r="X57">
-        <v>18506</v>
+        <v>4024</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C58">
-        <v>1806</v>
+        <v>1408</v>
       </c>
       <c r="D58">
-        <v>1174</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>870</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>3275</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="J58">
-        <v>738</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>597</v>
+        <v>330</v>
       </c>
       <c r="L58">
-        <v>629</v>
+        <v>797</v>
       </c>
       <c r="M58">
-        <v>833</v>
+        <v>893</v>
       </c>
       <c r="N58">
-        <v>638</v>
+        <v>877</v>
       </c>
       <c r="O58">
-        <v>5365</v>
+        <v>150</v>
       </c>
       <c r="P58">
-        <v>5393</v>
+        <v>1371</v>
       </c>
       <c r="Q58">
-        <v>2993</v>
+        <v>1256</v>
       </c>
       <c r="R58">
-        <v>6418</v>
+        <v>5702</v>
       </c>
       <c r="S58">
-        <v>10268</v>
+        <v>4941</v>
       </c>
       <c r="T58">
-        <v>8403</v>
+        <v>5658</v>
       </c>
       <c r="U58">
-        <v>5571</v>
+        <v>2683</v>
       </c>
       <c r="V58">
-        <v>5426</v>
+        <v>4091</v>
       </c>
       <c r="W58">
-        <v>7131</v>
+        <v>7293</v>
       </c>
       <c r="X58">
-        <v>3866</v>
+        <v>3401</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C59">
-        <v>2019</v>
+        <v>8655</v>
+      </c>
+      <c r="D59">
+        <v>12184</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>10425</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>12762</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>2023</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2084</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1885</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>1550</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>1454</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>8831</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>9216</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>13861</v>
       </c>
       <c r="O59">
-        <v>1919</v>
+        <v>13828</v>
       </c>
       <c r="P59">
-        <v>982</v>
+        <v>13209</v>
       </c>
       <c r="Q59">
-        <v>860</v>
+        <v>14098</v>
       </c>
       <c r="R59">
-        <v>3896</v>
+        <v>17985</v>
       </c>
       <c r="S59">
-        <v>465</v>
+        <v>14823</v>
       </c>
       <c r="T59">
-        <v>1461</v>
+        <v>13296</v>
       </c>
       <c r="U59">
-        <v>405</v>
+        <v>15776</v>
       </c>
       <c r="V59">
-        <v>3473</v>
+        <v>15086</v>
       </c>
       <c r="W59">
-        <v>5198</v>
+        <v>13496</v>
       </c>
       <c r="X59">
-        <v>4332</v>
+        <v>15719</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C60">
-        <v>1685</v>
+        <v>7917</v>
+      </c>
+      <c r="D60">
+        <v>12138</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>7841</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>6998</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1802</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2231</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>789</v>
       </c>
       <c r="J60">
-        <v>709</v>
+        <v>446</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>2145</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>8323</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>12440</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>15571</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>18741</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>14083</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>11615</v>
       </c>
       <c r="R60">
-        <v>3154</v>
+        <v>16493</v>
       </c>
       <c r="S60">
-        <v>2367</v>
+        <v>17596</v>
       </c>
       <c r="T60">
-        <v>403</v>
+        <v>12963</v>
       </c>
       <c r="U60">
-        <v>851</v>
+        <v>16846</v>
       </c>
       <c r="V60">
-        <v>3021</v>
+        <v>24478</v>
       </c>
       <c r="W60">
-        <v>3552</v>
+        <v>25888</v>
       </c>
       <c r="X60">
-        <v>3184</v>
+        <v>29458</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C61">
-        <v>1693</v>
+        <v>11099</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>11503</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>11068</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>7775</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>2389</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2825</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>3184</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>2457</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>2821</v>
       </c>
       <c r="L61">
-        <v>316</v>
+        <v>14912</v>
       </c>
       <c r="M61">
-        <v>1000</v>
+        <v>15952</v>
       </c>
       <c r="N61">
-        <v>939</v>
+        <v>20991</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>21044</v>
       </c>
       <c r="P61">
-        <v>0</v>
+        <v>19881</v>
       </c>
       <c r="Q61">
-        <v>150</v>
+        <v>22251</v>
       </c>
       <c r="R61">
-        <v>3940</v>
+        <v>22846</v>
       </c>
       <c r="S61">
-        <v>4848</v>
+        <v>16679</v>
       </c>
       <c r="T61">
-        <v>844</v>
+        <v>23032</v>
       </c>
       <c r="U61">
-        <v>1016</v>
+        <v>25680</v>
       </c>
       <c r="V61">
-        <v>3835</v>
+        <v>22347</v>
       </c>
       <c r="W61">
-        <v>3773</v>
+        <v>24828</v>
       </c>
       <c r="X61">
-        <v>4024</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>142</v>
-      </c>
-      <c r="B62" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C62">
-        <v>1408</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>341</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>330</v>
-      </c>
-      <c r="L62">
-        <v>797</v>
-      </c>
-      <c r="M62">
-        <v>893</v>
-      </c>
-      <c r="N62">
-        <v>877</v>
-      </c>
-      <c r="O62">
-        <v>150</v>
-      </c>
-      <c r="P62">
-        <v>1371</v>
-      </c>
-      <c r="Q62">
-        <v>1256</v>
-      </c>
-      <c r="R62">
-        <v>5702</v>
-      </c>
-      <c r="S62">
-        <v>4941</v>
-      </c>
-      <c r="T62">
-        <v>5658</v>
-      </c>
-      <c r="U62">
-        <v>2683</v>
-      </c>
-      <c r="V62">
-        <v>4091</v>
-      </c>
-      <c r="W62">
-        <v>7293</v>
-      </c>
-      <c r="X62">
-        <v>3401</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>142</v>
-      </c>
-      <c r="B63" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C63">
-        <v>8655</v>
-      </c>
-      <c r="D63">
-        <v>12184</v>
-      </c>
-      <c r="E63">
-        <v>10425</v>
-      </c>
-      <c r="F63">
-        <v>12762</v>
-      </c>
-      <c r="G63">
-        <v>2023</v>
-      </c>
-      <c r="H63">
-        <v>2084</v>
-      </c>
-      <c r="I63">
-        <v>1885</v>
-      </c>
-      <c r="J63">
-        <v>1550</v>
-      </c>
-      <c r="K63">
-        <v>1454</v>
-      </c>
-      <c r="L63">
-        <v>8831</v>
-      </c>
-      <c r="M63">
-        <v>9216</v>
-      </c>
-      <c r="N63">
-        <v>13861</v>
-      </c>
-      <c r="O63">
-        <v>13828</v>
-      </c>
-      <c r="P63">
-        <v>13209</v>
-      </c>
-      <c r="Q63">
-        <v>14098</v>
-      </c>
-      <c r="R63">
-        <v>17985</v>
-      </c>
-      <c r="S63">
-        <v>14823</v>
-      </c>
-      <c r="T63">
-        <v>13296</v>
-      </c>
-      <c r="U63">
-        <v>15776</v>
-      </c>
-      <c r="V63">
-        <v>15086</v>
-      </c>
-      <c r="W63">
-        <v>13496</v>
-      </c>
-      <c r="X63">
-        <v>15719</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>142</v>
-      </c>
-      <c r="B64" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="C64">
-        <v>7917</v>
-      </c>
-      <c r="D64">
-        <v>12138</v>
-      </c>
-      <c r="E64">
-        <v>7841</v>
-      </c>
-      <c r="F64">
-        <v>6998</v>
-      </c>
-      <c r="G64">
-        <v>1802</v>
-      </c>
-      <c r="H64">
-        <v>2231</v>
-      </c>
-      <c r="I64">
-        <v>789</v>
-      </c>
-      <c r="J64">
-        <v>446</v>
-      </c>
-      <c r="K64">
-        <v>2145</v>
-      </c>
-      <c r="L64">
-        <v>8323</v>
-      </c>
-      <c r="M64">
-        <v>12440</v>
-      </c>
-      <c r="N64">
-        <v>15571</v>
-      </c>
-      <c r="O64">
-        <v>18741</v>
-      </c>
-      <c r="P64">
-        <v>14083</v>
-      </c>
-      <c r="Q64">
-        <v>11615</v>
-      </c>
-      <c r="R64">
-        <v>16493</v>
-      </c>
-      <c r="S64">
-        <v>17596</v>
-      </c>
-      <c r="T64">
-        <v>12963</v>
-      </c>
-      <c r="U64">
-        <v>16846</v>
-      </c>
-      <c r="V64">
-        <v>24478</v>
-      </c>
-      <c r="W64">
-        <v>25888</v>
-      </c>
-      <c r="X64">
-        <v>29458</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>142</v>
-      </c>
-      <c r="B65" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="C65">
-        <v>11099</v>
-      </c>
-      <c r="D65">
-        <v>11503</v>
-      </c>
-      <c r="E65">
-        <v>11068</v>
-      </c>
-      <c r="F65">
-        <v>7775</v>
-      </c>
-      <c r="G65">
-        <v>2389</v>
-      </c>
-      <c r="H65">
-        <v>2825</v>
-      </c>
-      <c r="I65">
-        <v>3184</v>
-      </c>
-      <c r="J65">
-        <v>2457</v>
-      </c>
-      <c r="K65">
-        <v>2821</v>
-      </c>
-      <c r="L65">
-        <v>14912</v>
-      </c>
-      <c r="M65">
-        <v>15952</v>
-      </c>
-      <c r="N65">
-        <v>20991</v>
-      </c>
-      <c r="O65">
-        <v>21044</v>
-      </c>
-      <c r="P65">
-        <v>19881</v>
-      </c>
-      <c r="Q65">
-        <v>22251</v>
-      </c>
-      <c r="R65">
-        <v>22846</v>
-      </c>
-      <c r="S65">
-        <v>16679</v>
-      </c>
-      <c r="T65">
-        <v>23032</v>
-      </c>
-      <c r="U65">
-        <v>25680</v>
-      </c>
-      <c r="V65">
-        <v>22347</v>
-      </c>
-      <c r="W65">
-        <v>24828</v>
-      </c>
-      <c r="X65">
         <v>23164</v>
       </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>142</v>
-      </c>
-      <c r="B66" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="C66">
-        <v>76343</v>
-      </c>
-      <c r="D66">
-        <v>86616</v>
-      </c>
-      <c r="E66">
-        <v>73874</v>
-      </c>
-      <c r="F66">
-        <v>80391</v>
-      </c>
-      <c r="G66">
-        <v>39299</v>
-      </c>
-      <c r="H66">
-        <v>14335</v>
-      </c>
-      <c r="I66">
-        <v>18312</v>
-      </c>
-      <c r="J66">
-        <v>17993</v>
-      </c>
-      <c r="K66">
-        <v>18626</v>
-      </c>
-      <c r="L66">
-        <v>49775</v>
-      </c>
-      <c r="M66">
-        <v>95514</v>
-      </c>
-      <c r="N66">
-        <v>120420</v>
-      </c>
-      <c r="O66">
-        <v>133183</v>
-      </c>
-      <c r="P66">
-        <v>133651</v>
-      </c>
-      <c r="Q66">
-        <v>112989</v>
-      </c>
-      <c r="R66">
-        <v>155465</v>
-      </c>
-      <c r="S66">
-        <v>149256</v>
-      </c>
-      <c r="T66">
-        <v>132159</v>
-      </c>
-      <c r="U66">
-        <v>147877</v>
-      </c>
-      <c r="V66">
-        <v>167958</v>
-      </c>
-      <c r="W66">
-        <v>179908</v>
-      </c>
-      <c r="X66">
-        <v>175513</v>
-      </c>
-      <c r="Y66">
-        <v>60459</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>136</v>
-      </c>
-      <c r="B67" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="N67" s="29"/>
-      <c r="W67">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>136</v>
-      </c>
-      <c r="B68" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="N68" s="29"/>
-      <c r="W68">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>136</v>
-      </c>
-      <c r="B69" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="N69" s="29"/>
-      <c r="W69">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>136</v>
-      </c>
-      <c r="B70" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="N70" s="29"/>
-      <c r="W70">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>136</v>
-      </c>
-      <c r="B71" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="N71" s="29"/>
-      <c r="W71">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>136</v>
-      </c>
-      <c r="B72" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="N72" s="29"/>
-      <c r="W72">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>136</v>
-      </c>
-      <c r="B73" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="N73" s="29"/>
-      <c r="W73">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>136</v>
-      </c>
-      <c r="B74" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="N74" s="29"/>
-      <c r="W74">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>136</v>
-      </c>
-      <c r="B75" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="N75" s="29"/>
-      <c r="W75">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>136</v>
-      </c>
-      <c r="B76" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="N76" s="29"/>
-      <c r="W76">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>136</v>
-      </c>
-      <c r="B77" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="N77" s="29"/>
-      <c r="W77">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>136</v>
-      </c>
-      <c r="B78" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="N78" s="29"/>
-      <c r="W78">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>136</v>
-      </c>
-      <c r="B79" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="M79">
-        <v>0</v>
-      </c>
-      <c r="N79" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="O79">
-        <v>0</v>
-      </c>
-      <c r="P79">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>0</v>
-      </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
-      <c r="S79">
-        <v>0</v>
-      </c>
-      <c r="T79">
-        <v>0</v>
-      </c>
-      <c r="U79">
-        <v>0</v>
-      </c>
-      <c r="V79">
-        <v>0</v>
-      </c>
-      <c r="W79">
-        <v>589</v>
+      <c r="Y61">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14997,7 +14550,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="30">
+      <c r="A2" s="33">
         <v>2020</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -15044,7 +14597,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
@@ -15089,7 +14642,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
@@ -15134,7 +14687,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
@@ -15179,7 +14732,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
@@ -15224,7 +14777,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
@@ -15269,7 +14822,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
@@ -15314,7 +14867,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -15359,7 +14912,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
@@ -15404,7 +14957,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
@@ -15449,7 +15002,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
@@ -15494,7 +15047,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
@@ -15539,7 +15092,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="33">
+      <c r="A14" s="36">
         <v>2021</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -15586,7 +15139,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
@@ -15631,7 +15184,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="6" t="s">
         <v>23</v>
       </c>
@@ -15676,7 +15229,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="6" t="s">
         <v>24</v>
       </c>
@@ -15721,7 +15274,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="6" t="s">
         <v>13</v>
       </c>
@@ -15766,7 +15319,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
@@ -15834,36 +15387,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35" t="s">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34" t="s">
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34" t="s">
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
     </row>
     <row r="2" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="1" t="s">
         <v>42</v>
       </c>
@@ -15902,7 +15455,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="30">
+      <c r="A3" s="33">
         <v>2020</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -15946,7 +15499,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
@@ -15988,7 +15541,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
@@ -16030,7 +15583,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
@@ -16072,7 +15625,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
@@ -16114,7 +15667,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
@@ -16156,7 +15709,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="6" t="s">
         <v>26</v>
       </c>
@@ -16198,7 +15751,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
@@ -16240,7 +15793,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
@@ -16282,7 +15835,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
@@ -16324,7 +15877,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="6" t="s">
         <v>19</v>
       </c>
@@ -16366,7 +15919,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
@@ -16408,7 +15961,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="33">
+      <c r="A15" s="36">
         <v>2021</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -16452,7 +16005,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="6" t="s">
         <v>22</v>
       </c>
@@ -16494,7 +16047,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
@@ -16536,7 +16089,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="6" t="s">
         <v>24</v>
       </c>
@@ -16578,7 +16131,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="6" t="s">
         <v>13</v>
       </c>
@@ -16620,7 +16173,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="6" t="s">
         <v>25</v>
       </c>
@@ -16741,7 +16294,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="30">
+      <c r="A2" s="33">
         <v>2020</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -16788,7 +16341,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
@@ -16833,7 +16386,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
@@ -16878,7 +16431,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
@@ -16923,7 +16476,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
@@ -16968,7 +16521,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
@@ -17013,7 +16566,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
@@ -17058,7 +16611,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -17103,7 +16656,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
@@ -17148,7 +16701,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
@@ -17193,7 +16746,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
@@ -17238,7 +16791,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
@@ -17283,7 +16836,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="33">
+      <c r="A14" s="36">
         <v>2021</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -17330,7 +16883,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
@@ -17375,7 +16928,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="6" t="s">
         <v>23</v>
       </c>
@@ -17420,7 +16973,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="6" t="s">
         <v>24</v>
       </c>
@@ -17465,7 +17018,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="6" t="s">
         <v>13</v>
       </c>
@@ -17510,7 +17063,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="6" t="s">
         <v>25</v>
       </c>
@@ -17588,28 +17141,28 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
-      <c r="B1" s="36">
+      <c r="B1" s="39">
         <v>2020</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39">
         <v>2021</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
@@ -18107,32 +17660,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="40"/>
-      <c r="B1" s="37">
+      <c r="A1" s="43"/>
+      <c r="B1" s="40">
         <v>2020</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="36">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="39">
         <v>2021</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
+      <c r="A2" s="44"/>
       <c r="B2" s="12" t="s">
         <v>55</v>
       </c>
@@ -18624,10 +18177,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>28</v>
@@ -18641,8 +18194,8 @@
       <c r="F1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="44" t="s">
-        <v>153</v>
+      <c r="G1" s="32" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -19093,11 +18646,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>151</v>
+      <c r="A1" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>146</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>48</v>
